--- a/backtrader_trading_log.xlsx
+++ b/backtrader_trading_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="134">
   <si>
     <t>交易时间</t>
   </si>
@@ -43,6 +43,9 @@
     <t>买入时段</t>
   </si>
   <si>
+    <t>002364.SZ</t>
+  </si>
+  <si>
     <t>603186.SH</t>
   </si>
   <si>
@@ -52,9 +55,15 @@
     <t>000066.SZ</t>
   </si>
   <si>
+    <t>600673.SH</t>
+  </si>
+  <si>
     <t>000892.SZ</t>
   </si>
   <si>
+    <t>002342.SZ</t>
+  </si>
+  <si>
     <t>601798.SH</t>
   </si>
   <si>
@@ -70,28 +79,52 @@
     <t>603950.SH</t>
   </si>
   <si>
+    <t>001339.SZ</t>
+  </si>
+  <si>
     <t>600104.SH</t>
   </si>
   <si>
     <t>002290.SZ</t>
   </si>
   <si>
+    <t>002555.SZ</t>
+  </si>
+  <si>
     <t>002918.SZ</t>
   </si>
   <si>
+    <t>603615.SH</t>
+  </si>
+  <si>
+    <t>600980.SH</t>
+  </si>
+  <si>
+    <t>603228.SH</t>
+  </si>
+  <si>
     <t>605100.SH</t>
   </si>
   <si>
+    <t>002423.SZ</t>
+  </si>
+  <si>
     <t>601606.SH</t>
   </si>
   <si>
     <t>601958.SH</t>
   </si>
   <si>
+    <t>002716.SZ</t>
+  </si>
+  <si>
     <t>001222.SZ</t>
   </si>
   <si>
-    <t>002716.SZ</t>
+    <t>605289.SH</t>
+  </si>
+  <si>
+    <t>002031.SZ</t>
   </si>
   <si>
     <t>600400.SH</t>
@@ -109,12 +142,12 @@
     <t>603033.SH</t>
   </si>
   <si>
-    <t>002031.SZ</t>
-  </si>
-  <si>
     <t>605050.SH</t>
   </si>
   <si>
+    <t>002426.SZ</t>
+  </si>
+  <si>
     <t>002796.SZ</t>
   </si>
   <si>
@@ -124,9 +157,15 @@
     <t>002534.SZ</t>
   </si>
   <si>
+    <t>605378.SH</t>
+  </si>
+  <si>
     <t>002723.SZ</t>
   </si>
   <si>
+    <t>002046.SZ</t>
+  </si>
+  <si>
     <t>603863.SH</t>
   </si>
   <si>
@@ -157,6 +196,12 @@
     <t>603286.SH</t>
   </si>
   <si>
+    <t>603656.SH</t>
+  </si>
+  <si>
+    <t>002313.SZ</t>
+  </si>
+  <si>
     <t>603878.SH</t>
   </si>
   <si>
@@ -175,18 +220,24 @@
     <t>000737.SZ</t>
   </si>
   <si>
+    <t>002130.SZ</t>
+  </si>
+  <si>
     <t>600071.SH</t>
   </si>
   <si>
+    <t>002245.SZ</t>
+  </si>
+  <si>
     <t>002272.SZ</t>
   </si>
   <si>
+    <t>002472.SZ</t>
+  </si>
+  <si>
     <t>603683.SH</t>
   </si>
   <si>
-    <t>002472.SZ</t>
-  </si>
-  <si>
     <t>002303.SZ</t>
   </si>
   <si>
@@ -205,75 +256,93 @@
     <t>600103.SH</t>
   </si>
   <si>
+    <t>002562.SZ</t>
+  </si>
+  <si>
     <t>603800.SH</t>
   </si>
   <si>
     <t>600126.SH</t>
   </si>
   <si>
-    <t>002130.SZ</t>
-  </si>
-  <si>
     <t>603035.SH</t>
   </si>
   <si>
-    <t>001209.SZ</t>
-  </si>
-  <si>
     <t>002971.SZ</t>
   </si>
   <si>
+    <t>600637.SH</t>
+  </si>
+  <si>
     <t>600848.SH</t>
   </si>
   <si>
+    <t>002885.SZ</t>
+  </si>
+  <si>
+    <t>600626.SH</t>
+  </si>
+  <si>
     <t>601279.SH</t>
   </si>
   <si>
+    <t>603036.SH</t>
+  </si>
+  <si>
+    <t>000753.SZ</t>
+  </si>
+  <si>
     <t>002029.SZ</t>
   </si>
   <si>
-    <t>002885.SZ</t>
-  </si>
-  <si>
-    <t>600626.SH</t>
-  </si>
-  <si>
-    <t>605169.SH</t>
-  </si>
-  <si>
-    <t>000753.SZ</t>
-  </si>
-  <si>
     <t>002307.SZ</t>
   </si>
   <si>
     <t>003005.SZ</t>
   </si>
   <si>
+    <t>002629.SZ</t>
+  </si>
+  <si>
     <t>603192.SH</t>
   </si>
   <si>
-    <t>002629.SZ</t>
-  </si>
-  <si>
     <t>002701.SZ</t>
   </si>
   <si>
     <t>002436.SZ</t>
   </si>
   <si>
+    <t>603861.SH</t>
+  </si>
+  <si>
     <t>603222.SH</t>
   </si>
   <si>
+    <t>605111.SH</t>
+  </si>
+  <si>
+    <t>600513.SH</t>
+  </si>
+  <si>
     <t>002793.SZ</t>
   </si>
   <si>
+    <t>605303.SH</t>
+  </si>
+  <si>
+    <t>600192.SH</t>
+  </si>
+  <si>
     <t>601015.SH</t>
   </si>
   <si>
     <t>002893.SZ</t>
   </si>
   <si>
+    <t>000905.SZ</t>
+  </si>
+  <si>
     <t>600815.SH</t>
   </si>
   <si>
@@ -283,9 +352,6 @@
     <t>000665.SZ</t>
   </si>
   <si>
-    <t>000905.SZ</t>
-  </si>
-  <si>
     <t>600169.SH</t>
   </si>
   <si>
@@ -295,13 +361,16 @@
     <t>605228.SH</t>
   </si>
   <si>
-    <t>002546.SZ</t>
+    <t>002861.SZ</t>
+  </si>
+  <si>
+    <t>603280.SH</t>
   </si>
   <si>
     <t>603685.SH</t>
   </si>
   <si>
-    <t>603280.SH</t>
+    <t>603803.SH</t>
   </si>
   <si>
     <t>001330.SZ</t>
@@ -317,6 +386,9 @@
   </si>
   <si>
     <t>002595.SZ</t>
+  </si>
+  <si>
+    <t>600595.SH</t>
   </si>
   <si>
     <t>BUY</t>
@@ -707,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,129 +816,117 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2">
-        <v>45884.40625</v>
+        <v>45884.39652777778</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>36.055</v>
+        <v>18.96</v>
       </c>
       <c r="F2">
-        <v>18027.5</v>
+        <v>18960</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>45887.39861111111</v>
+        <v>45884.40694444445</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E3">
-        <v>28.29333333333333</v>
+        <v>36.23</v>
       </c>
       <c r="F3">
-        <v>19805.33333333333</v>
+        <v>18115</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>45888.39652777778</v>
+        <v>45887.39652777778</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
+        <v>28.43</v>
+      </c>
+      <c r="F4">
+        <v>19901</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>45888.39722222222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5">
         <v>1100</v>
       </c>
-      <c r="E4">
-        <v>18.02333333333333</v>
-      </c>
-      <c r="F4">
-        <v>19825.66666666667</v>
-      </c>
-      <c r="I4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3">
-        <v>45889</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
       <c r="E5">
-        <v>41.25</v>
+        <v>18.09</v>
       </c>
       <c r="F5">
-        <v>20625</v>
-      </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5">
-        <v>2597.5</v>
+        <v>19899</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3">
-        <v>45889</v>
+      <c r="A6" s="2">
+        <v>45888.42986111111</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D6">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E6">
-        <v>28.52</v>
+        <v>17.05</v>
       </c>
       <c r="F6">
-        <v>19964</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6">
-        <v>158.6666666666666</v>
+        <v>18755</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -874,4858 +934,6297 @@
         <v>45889</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>22.47</v>
+      </c>
+      <c r="F7">
+        <v>22470</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7">
+        <v>3509.999999999998</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>45889</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>41.25</v>
+      </c>
+      <c r="F8">
+        <v>20625</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8">
+        <v>2510.000000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>45889</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7">
-        <v>1100</v>
-      </c>
-      <c r="E7">
-        <v>17.48</v>
-      </c>
-      <c r="F7">
-        <v>19228</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7">
-        <v>-597.6666666666663</v>
-      </c>
-      <c r="I7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>45889.39652777778</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8">
-        <v>3800</v>
-      </c>
-      <c r="E8">
-        <v>5.163333333333333</v>
-      </c>
-      <c r="F8">
-        <v>19620.66666666666</v>
-      </c>
-      <c r="I8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>45889.40902777778</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="E9">
-        <v>10.61</v>
+        <v>28.52</v>
       </c>
       <c r="F9">
-        <v>19098</v>
+        <v>19964</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9">
+        <v>62.9999999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3">
-        <v>45890</v>
+        <v>45889</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D10">
-        <v>3800</v>
+        <v>1100</v>
       </c>
       <c r="E10">
-        <v>5.09</v>
+        <v>17.48</v>
       </c>
       <c r="F10">
-        <v>19342</v>
+        <v>19228</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H10">
-        <v>-278.6666666666663</v>
+        <v>-670.9999999999993</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>45890.39652777778</v>
+        <v>45889.39652777778</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="E11">
-        <v>50.86666666666667</v>
+        <v>5.15</v>
       </c>
       <c r="F11">
-        <v>15260</v>
+        <v>19570</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>45890.41597222222</v>
+        <v>45889.39861111111</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="E12">
-        <v>7.44</v>
+        <v>8.91</v>
       </c>
       <c r="F12">
-        <v>19344</v>
+        <v>19602</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3">
-        <v>45891</v>
+      <c r="A13" s="2">
+        <v>45889.40208333333</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E13">
-        <v>47.94</v>
+        <v>10.63</v>
       </c>
       <c r="F13">
-        <v>14382</v>
-      </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13">
-        <v>-878.0000000000008</v>
+        <v>19134</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3">
-        <v>45891</v>
+        <v>45890</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D14">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="E14">
-        <v>7.38</v>
+        <v>5.09</v>
       </c>
       <c r="F14">
-        <v>19188</v>
+        <v>19342</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H14">
-        <v>-156.0000000000013</v>
+        <v>-228.0000000000019</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>45891.39652777778</v>
+        <v>45890.39652777778</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D15">
-        <v>3700</v>
+        <v>300</v>
       </c>
       <c r="E15">
-        <v>5.3775</v>
+        <v>50.78</v>
       </c>
       <c r="F15">
-        <v>19896.75</v>
+        <v>15234</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>45891.39652777778</v>
+        <v>45890.4125</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D16">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="E16">
-        <v>27.83</v>
+        <v>7.47</v>
       </c>
       <c r="F16">
-        <v>19481</v>
+        <v>19422</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D17">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="E17">
-        <v>10.36</v>
+        <v>8.68</v>
       </c>
       <c r="F17">
-        <v>18648</v>
+        <v>19096</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H17">
-        <v>-450.0000000000032</v>
+        <v>-506.0000000000009</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D18">
-        <v>3700</v>
+        <v>300</v>
       </c>
       <c r="E18">
-        <v>5.26</v>
+        <v>47.94</v>
       </c>
       <c r="F18">
-        <v>19462</v>
+        <v>14382</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H18">
-        <v>-434.7500000000022</v>
+        <v>-852.000000000001</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2">
-        <v>45895.39652777778</v>
+      <c r="A19" s="3">
+        <v>45891</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D19">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="E19">
-        <v>20.18</v>
+        <v>7.38</v>
       </c>
       <c r="F19">
-        <v>18162</v>
+        <v>19188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19">
+        <v>-233.9999999999996</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3">
-        <v>45896</v>
+      <c r="A20" s="2">
+        <v>45891.39652777778</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D20">
+        <v>3600</v>
+      </c>
+      <c r="E20">
+        <v>5.42</v>
+      </c>
+      <c r="F20">
+        <v>19512</v>
+      </c>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>45891.39652777778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21">
         <v>700</v>
       </c>
-      <c r="E20">
-        <v>32.54</v>
-      </c>
-      <c r="F20">
-        <v>22778</v>
-      </c>
-      <c r="G20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20">
-        <v>3297</v>
-      </c>
-      <c r="I20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3">
-        <v>45896</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21">
-        <v>900</v>
-      </c>
       <c r="E21">
-        <v>18.91</v>
+        <v>28.08</v>
       </c>
       <c r="F21">
-        <v>17019</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21">
-        <v>-1143.000000000003</v>
+        <v>19656</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>45897.39652777778</v>
+        <v>45891.42152777778</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D22">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E22">
-        <v>35.46333333333333</v>
+        <v>60.77</v>
       </c>
       <c r="F22">
-        <v>17731.66666666666</v>
+        <v>18231</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2">
-        <v>45898.47083333333</v>
+      <c r="A23" s="3">
+        <v>45894</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D23">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E23">
-        <v>12.965</v>
+        <v>20.23</v>
       </c>
       <c r="F23">
-        <v>19447.5</v>
+        <v>22253</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23">
+        <v>3498</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>45901</v>
+        <v>45894</v>
       </c>
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24">
+        <v>1800</v>
+      </c>
+      <c r="E24">
+        <v>10.36</v>
+      </c>
+      <c r="F24">
+        <v>18648</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
+        <v>-486.0000000000024</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3">
+        <v>45894</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24">
-        <v>500</v>
-      </c>
-      <c r="E24">
-        <v>34.18</v>
-      </c>
-      <c r="F24">
-        <v>17090</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24">
-        <v>-641.6666666666657</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2">
-        <v>45901.39652777778</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D25">
-        <v>700</v>
+        <v>3600</v>
       </c>
       <c r="E25">
-        <v>27.78</v>
+        <v>5.26</v>
       </c>
       <c r="F25">
-        <v>19446</v>
+        <v>18936</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
+        <v>-576.0000000000005</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26">
+        <v>300</v>
+      </c>
+      <c r="E26">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="F26">
+        <v>20730</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26">
+        <v>2498.999999999997</v>
+      </c>
+      <c r="I26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>45895.39652777778</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27">
+        <v>900</v>
+      </c>
+      <c r="E27">
+        <v>20.34</v>
+      </c>
+      <c r="F27">
+        <v>18306</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3">
+        <v>45896</v>
+      </c>
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26">
-        <v>1500</v>
-      </c>
-      <c r="E26">
-        <v>13.01</v>
-      </c>
-      <c r="F26">
-        <v>19515</v>
-      </c>
-      <c r="G26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26">
-        <v>67.49999999999989</v>
-      </c>
-      <c r="I26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3">
-        <v>45902</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27">
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28">
         <v>700</v>
       </c>
-      <c r="E27">
-        <v>26.86</v>
-      </c>
-      <c r="F27">
-        <v>18802</v>
-      </c>
-      <c r="G27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27">
-        <v>-644.0000000000011</v>
-      </c>
-      <c r="I27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2">
-        <v>45902.41180555556</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28">
-        <v>200</v>
-      </c>
       <c r="E28">
-        <v>67.58333333333333</v>
+        <v>32.54</v>
       </c>
       <c r="F28">
-        <v>13516.66666666667</v>
+        <v>22778</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28">
+        <v>3122</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>45903</v>
+        <v>45896</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E29">
-        <v>65.18000000000001</v>
+        <v>18.91</v>
       </c>
       <c r="F29">
-        <v>13036</v>
+        <v>17019</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H29">
-        <v>-480.6666666666644</v>
+        <v>-1287</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>45903.4625</v>
+        <v>45897.39652777778</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D30">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E30">
-        <v>16.32333333333333</v>
+        <v>35.24</v>
       </c>
       <c r="F30">
-        <v>19588</v>
+        <v>17620</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
-        <v>45903.47777777778</v>
+        <v>45897.5625</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D31">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E31">
-        <v>26.13</v>
+        <v>19.01</v>
       </c>
       <c r="F31">
-        <v>18291</v>
+        <v>19010</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>45903.55</v>
+        <v>45898.39722222222</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D32">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="E32">
-        <v>5.966666666666666</v>
+        <v>13.12</v>
       </c>
       <c r="F32">
-        <v>19690</v>
+        <v>19680</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3">
-        <v>45904</v>
+      <c r="A33" s="2">
+        <v>45898.39722222222</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D33">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E33">
-        <v>15.45</v>
+        <v>25.88</v>
       </c>
       <c r="F33">
-        <v>18540</v>
-      </c>
-      <c r="G33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33">
-        <v>-1048.000000000002</v>
+        <v>18116</v>
       </c>
       <c r="I33" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3">
-        <v>45904</v>
+      <c r="A34" s="2">
+        <v>45898.39791666667</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D34">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E34">
-        <v>5.78</v>
+        <v>27.95</v>
       </c>
       <c r="F34">
-        <v>19074</v>
-      </c>
-      <c r="G34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34">
-        <v>-615.9999999999966</v>
+        <v>19565</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>45904.39652777778</v>
+        <v>45898.4</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D35">
-        <v>7600</v>
+        <v>300</v>
       </c>
       <c r="E35">
-        <v>2.606666666666667</v>
+        <v>62.94</v>
       </c>
       <c r="F35">
-        <v>19810.66666666667</v>
+        <v>18882</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="2">
-        <v>45904.39652777778</v>
+      <c r="A36" s="3">
+        <v>45901</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D36">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E36">
-        <v>21.52666666666667</v>
+        <v>34.18</v>
       </c>
       <c r="F36">
-        <v>19374</v>
+        <v>17090</v>
+      </c>
+      <c r="G36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36">
+        <v>-530.0000000000011</v>
       </c>
       <c r="I36" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="2">
-        <v>45904.42361111111</v>
+      <c r="A37" s="3">
+        <v>45901</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D37">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E37">
-        <v>13.59</v>
+        <v>61.11</v>
       </c>
       <c r="F37">
-        <v>19026</v>
+        <v>18333</v>
+      </c>
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37">
+        <v>-548.9999999999995</v>
       </c>
       <c r="I37" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2">
-        <v>45904.44236111111</v>
+        <v>45901.39930555555</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E38">
-        <v>53.87666666666667</v>
+        <v>27.95</v>
       </c>
       <c r="F38">
-        <v>16163</v>
+        <v>19565</v>
       </c>
       <c r="I38" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
-        <v>45904.54305555556</v>
+        <v>45901.54930555556</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D39">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E39">
-        <v>12.65666666666667</v>
+        <v>13.91</v>
       </c>
       <c r="F39">
-        <v>18985</v>
+        <v>19474</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="2">
-        <v>45904.59166666667</v>
+      <c r="A40" s="3">
+        <v>45902</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D40">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="E40">
-        <v>8.646666666666667</v>
+        <v>19.3</v>
       </c>
       <c r="F40">
-        <v>19887.33333333333</v>
+        <v>19300</v>
+      </c>
+      <c r="G40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40">
+        <v>289.9999999999991</v>
       </c>
       <c r="I40" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D41">
-        <v>7600</v>
+        <v>1500</v>
       </c>
       <c r="E41">
-        <v>2.56</v>
+        <v>13.01</v>
       </c>
       <c r="F41">
-        <v>19456</v>
+        <v>19515</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H41">
-        <v>-354.6666666666681</v>
+        <v>-164.9999999999991</v>
       </c>
       <c r="I41" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D42">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E42">
-        <v>62.98</v>
+        <v>26.14</v>
       </c>
       <c r="F42">
-        <v>18894</v>
+        <v>18298</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H42">
-        <v>2731</v>
+        <v>182.0000000000011</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="2">
-        <v>45905.39652777778</v>
+      <c r="A43" s="3">
+        <v>45902</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D43">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E43">
-        <v>17.17</v>
+        <v>26.55</v>
       </c>
       <c r="F43">
-        <v>18887</v>
+        <v>18585</v>
+      </c>
+      <c r="G43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43">
+        <v>-979.999999999999</v>
       </c>
       <c r="I43" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="3">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D44">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E44">
-        <v>14.9</v>
+        <v>26.86</v>
       </c>
       <c r="F44">
-        <v>20860</v>
+        <v>18802</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H44">
-        <v>1834.000000000003</v>
+        <v>-762.9999999999999</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D45">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E45">
-        <v>28.82</v>
+        <v>13.66</v>
       </c>
       <c r="F45">
-        <v>20174</v>
+        <v>19124</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H45">
-        <v>1883.000000000001</v>
+        <v>-350</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="3">
-        <v>45909</v>
+      <c r="A46" s="2">
+        <v>45902.41111111111</v>
       </c>
       <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D46">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="E46">
-        <v>8.869999999999999</v>
+        <v>67.91</v>
       </c>
       <c r="F46">
-        <v>20401</v>
-      </c>
-      <c r="G46" t="s">
-        <v>104</v>
-      </c>
-      <c r="H46">
-        <v>513.6666666666653</v>
+        <v>13582</v>
       </c>
       <c r="I46" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D47">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="E47">
-        <v>20.45</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="F47">
-        <v>22495</v>
+        <v>13036</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H47">
-        <v>3607.999999999997</v>
+        <v>-545.999999999998</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2">
-        <v>45909.39652777778</v>
+        <v>45903.46180555555</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D48">
         <v>1200</v>
       </c>
       <c r="E48">
-        <v>15.54</v>
+        <v>16.4</v>
       </c>
       <c r="F48">
-        <v>18648</v>
+        <v>19680</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2">
-        <v>45909.39791666667</v>
+        <v>45903.54583333333</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D49">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="E49">
-        <v>33.19333333333334</v>
+        <v>5.99</v>
       </c>
       <c r="F49">
-        <v>19916</v>
+        <v>19767</v>
       </c>
       <c r="I49" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2">
-        <v>45909.55138888889</v>
+        <v>45903.56805555556</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D50">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E50">
-        <v>13.66</v>
+        <v>25.99</v>
       </c>
       <c r="F50">
-        <v>19124</v>
+        <v>18193</v>
       </c>
       <c r="I50" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2">
-        <v>45909.58472222222</v>
+        <v>45903.57430555556</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D51">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="E51">
-        <v>9.606666666666667</v>
+        <v>52.25</v>
       </c>
       <c r="F51">
-        <v>19213.33333333334</v>
+        <v>15675</v>
       </c>
       <c r="I51" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D52">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E52">
-        <v>12.75</v>
+        <v>15.45</v>
       </c>
       <c r="F52">
-        <v>19125</v>
+        <v>18540</v>
       </c>
       <c r="G52" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H52">
-        <v>140.0000000000006</v>
+        <v>-1139.999999999999</v>
       </c>
       <c r="I52" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D53">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="E53">
-        <v>16.05</v>
+        <v>5.78</v>
       </c>
       <c r="F53">
-        <v>19260</v>
+        <v>19074</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H53">
-        <v>612.0000000000018</v>
+        <v>-692.9999999999999</v>
       </c>
       <c r="I53" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="2">
-        <v>45910.39791666667</v>
+      <c r="A54" s="3">
+        <v>45904</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D54">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E54">
-        <v>19.81</v>
+        <v>48</v>
       </c>
       <c r="F54">
-        <v>19810</v>
+        <v>14400</v>
+      </c>
+      <c r="G54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54">
+        <v>-1275</v>
       </c>
       <c r="I54" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2">
-        <v>45910.40069444444</v>
+        <v>45904.39652777778</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D55">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="E55">
-        <v>43.63</v>
+        <v>8.66</v>
       </c>
       <c r="F55">
-        <v>17452</v>
+        <v>19918</v>
       </c>
       <c r="I55" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="3">
-        <v>45911</v>
+      <c r="A56" s="2">
+        <v>45904.39652777778</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D56">
-        <v>600</v>
+        <v>7600</v>
       </c>
       <c r="E56">
-        <v>34.42</v>
+        <v>2.6</v>
       </c>
       <c r="F56">
-        <v>20652</v>
-      </c>
-      <c r="G56" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56">
-        <v>736</v>
+        <v>19760</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="3">
-        <v>45911</v>
+      <c r="A57" s="2">
+        <v>45904.39652777778</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D57">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E57">
-        <v>42.48</v>
+        <v>21.49</v>
       </c>
       <c r="F57">
-        <v>16992</v>
-      </c>
-      <c r="G57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57">
-        <v>-459.9999999999994</v>
+        <v>19341</v>
       </c>
       <c r="I57" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2">
-        <v>45911.39652777778</v>
+        <v>45904.40347222222</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D58">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E58">
-        <v>41.47333333333334</v>
+        <v>13.66</v>
       </c>
       <c r="F58">
-        <v>16589.33333333334</v>
+        <v>19124</v>
       </c>
       <c r="I58" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2">
-        <v>45911.39652777778</v>
+        <v>45904.44027777778</v>
       </c>
       <c r="B59" t="s">
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D59">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E59">
-        <v>14.66333333333333</v>
+        <v>53.96</v>
       </c>
       <c r="F59">
-        <v>19062.33333333334</v>
+        <v>16188</v>
       </c>
       <c r="I59" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2">
-        <v>45911.39652777778</v>
+        <v>45904.47777777778</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D60">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E60">
-        <v>47.52666666666666</v>
+        <v>12.72</v>
       </c>
       <c r="F60">
-        <v>19010.66666666666</v>
+        <v>19080</v>
       </c>
       <c r="I60" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="2">
-        <v>45911.39652777778</v>
+      <c r="A61" s="3">
+        <v>45905</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D61">
-        <v>400</v>
+        <v>7600</v>
       </c>
       <c r="E61">
-        <v>41.09333333333333</v>
+        <v>2.56</v>
       </c>
       <c r="F61">
-        <v>16437.33333333333</v>
+        <v>19456</v>
+      </c>
+      <c r="G61" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61">
+        <v>-304.0000000000003</v>
       </c>
       <c r="I61" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="2">
-        <v>45911.41111111111</v>
+      <c r="A62" s="3">
+        <v>45905</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D62">
-        <v>3100</v>
+        <v>300</v>
       </c>
       <c r="E62">
-        <v>6.436666666666667</v>
+        <v>62.98</v>
       </c>
       <c r="F62">
-        <v>19953.66666666667</v>
+        <v>18894</v>
+      </c>
+      <c r="G62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62">
+        <v>2705.999999999999</v>
       </c>
       <c r="I62" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2">
-        <v>45911.42361111111</v>
+        <v>45905.39791666667</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D63">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E63">
-        <v>31.71666666666667</v>
+        <v>17.29</v>
       </c>
       <c r="F63">
-        <v>19030</v>
+        <v>19019</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="2">
-        <v>45911.45694444444</v>
+      <c r="A64" s="3">
+        <v>45908</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D64">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E64">
-        <v>23.27</v>
+        <v>14.9</v>
       </c>
       <c r="F64">
-        <v>18616</v>
+        <v>20860</v>
+      </c>
+      <c r="G64" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64">
+        <v>1736</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="3">
-        <v>45912</v>
+      <c r="A65" s="2">
+        <v>45908.39652777778</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D65">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="E65">
-        <v>9.81</v>
+        <v>3.77</v>
       </c>
       <c r="F65">
-        <v>19620</v>
-      </c>
-      <c r="G65" t="s">
-        <v>104</v>
-      </c>
-      <c r="H65">
-        <v>406.6666666666663</v>
+        <v>19981</v>
       </c>
       <c r="I65" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="3">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D66">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E66">
-        <v>22.21</v>
+        <v>28.82</v>
       </c>
       <c r="F66">
-        <v>22210</v>
+        <v>20174</v>
       </c>
       <c r="G66" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H66">
-        <v>2400.000000000002</v>
+        <v>1981.000000000001</v>
       </c>
       <c r="I66" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="3">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D67">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="E67">
-        <v>40.19</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F67">
-        <v>16076</v>
+        <v>20401</v>
       </c>
       <c r="G67" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H67">
-        <v>-513.3333333333354</v>
+        <v>482.9999999999979</v>
       </c>
       <c r="I67" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="3">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D68">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E68">
-        <v>14.32</v>
+        <v>20.45</v>
       </c>
       <c r="F68">
-        <v>18616</v>
+        <v>22495</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="H68">
-        <v>-446.3333333333338</v>
+        <v>3476</v>
       </c>
       <c r="I68" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D69">
-        <v>400</v>
+        <v>5300</v>
       </c>
       <c r="E69">
-        <v>46.66</v>
+        <v>3.68</v>
       </c>
       <c r="F69">
-        <v>18664</v>
+        <v>19504</v>
       </c>
       <c r="G69" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H69">
-        <v>-346.6666666666669</v>
+        <v>-476.9999999999993</v>
       </c>
       <c r="I69" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="3">
-        <v>45912</v>
+      <c r="A70" s="2">
+        <v>45909.39652777778</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D70">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="E70">
-        <v>6.4</v>
+        <v>15.53</v>
       </c>
       <c r="F70">
-        <v>19840</v>
-      </c>
-      <c r="G70" t="s">
-        <v>104</v>
-      </c>
-      <c r="H70">
-        <v>-113.6666666666679</v>
+        <v>18636</v>
       </c>
       <c r="I70" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2">
-        <v>45912.45486111111</v>
+        <v>45909.39652777778</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D71">
         <v>500</v>
       </c>
       <c r="E71">
-        <v>35.0675</v>
+        <v>33.81</v>
       </c>
       <c r="F71">
-        <v>17533.75</v>
+        <v>16905</v>
       </c>
       <c r="I71" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="3">
-        <v>45915</v>
+      <c r="A72" s="2">
+        <v>45909.47152777778</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D72">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E72">
-        <v>22.6</v>
+        <v>13.73</v>
       </c>
       <c r="F72">
-        <v>20340</v>
-      </c>
-      <c r="G72" t="s">
-        <v>104</v>
-      </c>
-      <c r="H72">
-        <v>966.0000000000007</v>
+        <v>19222</v>
       </c>
       <c r="I72" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="3">
-        <v>45915</v>
+      <c r="A73" s="2">
+        <v>45909.47708333333</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D73">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E73">
-        <v>35.16</v>
+        <v>28.22</v>
       </c>
       <c r="F73">
-        <v>17580</v>
-      </c>
-      <c r="G73" t="s">
-        <v>104</v>
-      </c>
-      <c r="H73">
-        <v>46.25000000000057</v>
+        <v>19754</v>
       </c>
       <c r="I73" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2">
-        <v>45915.39652777778</v>
+        <v>45909.56527777778</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D74">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="E74">
-        <v>6.826666666666667</v>
+        <v>9.65</v>
       </c>
       <c r="F74">
-        <v>19797.33333333334</v>
+        <v>19300</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2">
-        <v>45915.39722222222</v>
+        <v>45909.58263888889</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D75">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E75">
-        <v>19.56333333333333</v>
+        <v>33.41</v>
       </c>
       <c r="F75">
-        <v>19563.33333333333</v>
+        <v>16705</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="2">
-        <v>45915.40277777778</v>
+      <c r="A76" s="3">
+        <v>45910</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D76">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E76">
-        <v>38.29666666666666</v>
+        <v>12.75</v>
       </c>
       <c r="F76">
-        <v>19148.33333333333</v>
+        <v>19125</v>
+      </c>
+      <c r="G76" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76">
+        <v>44.99999999999904</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="2">
-        <v>45915.40555555555</v>
+      <c r="A77" s="3">
+        <v>45910</v>
       </c>
       <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77">
+        <v>1200</v>
+      </c>
+      <c r="E77">
+        <v>16.05</v>
+      </c>
+      <c r="F77">
+        <v>19260</v>
+      </c>
+      <c r="G77" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77">
+        <v>624.0000000000016</v>
+      </c>
+      <c r="I77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="2">
+        <v>45910.39791666667</v>
+      </c>
+      <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="C77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77">
-        <v>1100</v>
-      </c>
-      <c r="E77">
-        <v>17.63</v>
-      </c>
-      <c r="F77">
-        <v>19393</v>
-      </c>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="3">
-        <v>45916</v>
-      </c>
-      <c r="B78" t="s">
-        <v>48</v>
-      </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D78">
         <v>1000</v>
       </c>
       <c r="E78">
-        <v>19.09</v>
+        <v>19.86</v>
       </c>
       <c r="F78">
-        <v>19090</v>
-      </c>
-      <c r="G78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H78">
-        <v>-473.3333333333327</v>
+        <v>19860</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2">
-        <v>45916.39791666667</v>
+        <v>45910.40069444444</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D79">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="E79">
-        <v>10.55333333333333</v>
+        <v>43.73</v>
       </c>
       <c r="F79">
-        <v>18996</v>
+        <v>17492</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="2">
-        <v>45916.44027777778</v>
+      <c r="A80" s="3">
+        <v>45911</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D80">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E80">
-        <v>13.32666666666667</v>
+        <v>34.42</v>
       </c>
       <c r="F80">
-        <v>19990</v>
+        <v>17210</v>
+      </c>
+      <c r="G80" t="s">
+        <v>127</v>
+      </c>
+      <c r="H80">
+        <v>304.9999999999997</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D81">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E81">
-        <v>49.65</v>
+        <v>29.71</v>
       </c>
       <c r="F81">
-        <v>19860</v>
+        <v>20797</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H81">
-        <v>3422.666666666666</v>
+        <v>1043.000000000001</v>
       </c>
       <c r="I81" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D82">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E82">
-        <v>24.05</v>
+        <v>33.16</v>
       </c>
       <c r="F82">
-        <v>19240</v>
+        <v>16580</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H82">
-        <v>624.0000000000009</v>
+        <v>-125</v>
       </c>
       <c r="I82" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D83">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83">
-        <v>37.84</v>
+        <v>42.48</v>
       </c>
       <c r="F83">
-        <v>18920</v>
+        <v>16992</v>
       </c>
       <c r="G83" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H83">
-        <v>-228.3333333333282</v>
+        <v>-500</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="3">
-        <v>45917</v>
+      <c r="A84" s="2">
+        <v>45911.39652777778</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D84">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="E84">
-        <v>11.54</v>
+        <v>41.28</v>
       </c>
       <c r="F84">
-        <v>20772</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
-      <c r="H84">
-        <v>1776</v>
+        <v>16512</v>
       </c>
       <c r="I84" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="2">
-        <v>45917.39722222222</v>
+        <v>45911.39652777778</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D85">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E85">
-        <v>23.64666666666666</v>
+        <v>14.6</v>
       </c>
       <c r="F85">
-        <v>18917.33333333333</v>
+        <v>18980</v>
       </c>
       <c r="I85" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="3">
-        <v>45918</v>
+      <c r="A86" s="2">
+        <v>45911.39652777778</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D86">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E86">
-        <v>14.76</v>
+        <v>47.69</v>
       </c>
       <c r="F86">
-        <v>20664</v>
-      </c>
-      <c r="G86" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86">
-        <v>1540.000000000002</v>
+        <v>19076</v>
       </c>
       <c r="I86" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="3">
-        <v>45918</v>
+      <c r="A87" s="2">
+        <v>45911.39791666667</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D87">
+        <v>400</v>
+      </c>
+      <c r="E87">
+        <v>40.71</v>
+      </c>
+      <c r="F87">
+        <v>16284</v>
+      </c>
+      <c r="I87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2">
+        <v>45911.40486111111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88">
+        <v>3100</v>
+      </c>
+      <c r="E88">
+        <v>6.44</v>
+      </c>
+      <c r="F88">
+        <v>19964</v>
+      </c>
+      <c r="I88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2">
+        <v>45911.425</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89">
         <v>600</v>
       </c>
-      <c r="E87">
-        <v>32.22</v>
-      </c>
-      <c r="F87">
-        <v>19332</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
-      <c r="H87">
-        <v>301.9999999999982</v>
-      </c>
-      <c r="I87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="3">
-        <v>45918</v>
-      </c>
-      <c r="B88" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88">
-        <v>1500</v>
-      </c>
-      <c r="E88">
-        <v>14.45</v>
-      </c>
-      <c r="F88">
-        <v>21675</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88">
-        <v>1684.999999999997</v>
-      </c>
-      <c r="I88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="3">
-        <v>45918</v>
-      </c>
-      <c r="B89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89">
-        <v>800</v>
-      </c>
       <c r="E89">
-        <v>23.15</v>
+        <v>31.84</v>
       </c>
       <c r="F89">
-        <v>18520</v>
-      </c>
-      <c r="G89" t="s">
-        <v>104</v>
-      </c>
-      <c r="H89">
-        <v>-397.3333333333329</v>
+        <v>19104</v>
       </c>
       <c r="I89" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2">
-        <v>45918.40972222222</v>
+        <v>45911.45</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D90">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E90">
-        <v>36.04</v>
+        <v>23.21</v>
       </c>
       <c r="F90">
-        <v>18020</v>
+        <v>18568</v>
       </c>
       <c r="I90" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D91">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="E91">
-        <v>7.89</v>
+        <v>9.81</v>
       </c>
       <c r="F91">
-        <v>22881</v>
+        <v>19620</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H91">
-        <v>3083.666666666664</v>
+        <v>320.0000000000003</v>
       </c>
       <c r="I91" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="3">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D92">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E92">
-        <v>35.49</v>
+        <v>22.21</v>
       </c>
       <c r="F92">
-        <v>17745</v>
+        <v>22210</v>
       </c>
       <c r="G92" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H92">
-        <v>-274.9999999999986</v>
+        <v>2350.000000000001</v>
       </c>
       <c r="I92" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="2">
-        <v>45919.39652777778</v>
+      <c r="A93" s="3">
+        <v>45912</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D93">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E93">
-        <v>52.0675</v>
+        <v>40.19</v>
       </c>
       <c r="F93">
-        <v>15620.25</v>
+        <v>16076</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
+      <c r="H93">
+        <v>-436.0000000000014</v>
       </c>
       <c r="I93" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="2">
-        <v>45922.39652777778</v>
+      <c r="A94" s="3">
+        <v>45912</v>
       </c>
       <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94">
+        <v>1300</v>
+      </c>
+      <c r="E94">
+        <v>14.32</v>
+      </c>
+      <c r="F94">
+        <v>18616</v>
+      </c>
+      <c r="G94" t="s">
+        <v>128</v>
+      </c>
+      <c r="H94">
+        <v>-363.9999999999991</v>
+      </c>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="3">
+        <v>45912</v>
+      </c>
+      <c r="B95" t="s">
         <v>54</v>
       </c>
-      <c r="C94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94">
-        <v>1100</v>
-      </c>
-      <c r="E94">
-        <v>18.00666666666666</v>
-      </c>
-      <c r="F94">
-        <v>19807.33333333333</v>
-      </c>
-      <c r="I94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="2">
-        <v>45922.39652777778</v>
-      </c>
-      <c r="B95" t="s">
-        <v>46</v>
-      </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D95">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E95">
-        <v>39.75333333333333</v>
+        <v>46.66</v>
       </c>
       <c r="F95">
-        <v>19876.66666666666</v>
+        <v>18664</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
+      <c r="H95">
+        <v>-412.0000000000005</v>
       </c>
       <c r="I95" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="2">
-        <v>45922.4125</v>
+      <c r="A96" s="3">
+        <v>45912</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D96">
-        <v>600</v>
+        <v>3100</v>
       </c>
       <c r="E96">
-        <v>32.25333333333333</v>
+        <v>6.4</v>
       </c>
       <c r="F96">
-        <v>19352</v>
+        <v>19840</v>
+      </c>
+      <c r="G96" t="s">
+        <v>128</v>
+      </c>
+      <c r="H96">
+        <v>-124.0000000000001</v>
       </c>
       <c r="I96" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2">
-        <v>45922.43194444444</v>
+        <v>45912.40902777778</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D97">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E97">
-        <v>48.67666666666667</v>
+        <v>35.6</v>
       </c>
       <c r="F97">
-        <v>19470.66666666667</v>
+        <v>17800</v>
       </c>
       <c r="I97" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="3">
-        <v>45923</v>
+      <c r="A98" s="2">
+        <v>45912.45833333334</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D98">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E98">
-        <v>20.57</v>
+        <v>22.1</v>
       </c>
       <c r="F98">
-        <v>22627</v>
-      </c>
-      <c r="G98" t="s">
-        <v>103</v>
-      </c>
-      <c r="H98">
-        <v>3234.000000000001</v>
+        <v>19890</v>
       </c>
       <c r="I98" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="3">
-        <v>45923</v>
+      <c r="A99" s="2">
+        <v>45912.45972222222</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D99">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E99">
-        <v>42.82</v>
+        <v>12.29</v>
       </c>
       <c r="F99">
-        <v>21410</v>
-      </c>
-      <c r="G99" t="s">
-        <v>103</v>
-      </c>
-      <c r="H99">
-        <v>1533.333333333335</v>
+        <v>19664</v>
       </c>
       <c r="I99" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="2">
-        <v>45923.39930555555</v>
+      <c r="A100" s="3">
+        <v>45915</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D100">
-        <v>4300</v>
+        <v>900</v>
       </c>
       <c r="E100">
-        <v>4.600000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="F100">
-        <v>19780</v>
+        <v>20340</v>
+      </c>
+      <c r="G100" t="s">
+        <v>128</v>
+      </c>
+      <c r="H100">
+        <v>999.0000000000027</v>
       </c>
       <c r="I100" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3">
-        <v>45924</v>
+        <v>45915</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D101">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E101">
-        <v>18.45</v>
+        <v>35.16</v>
       </c>
       <c r="F101">
-        <v>20295</v>
+        <v>17580</v>
       </c>
       <c r="G101" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H101">
-        <v>487.6666666666687</v>
+        <v>-220.0000000000024</v>
       </c>
       <c r="I101" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="3">
-        <v>45924</v>
+        <v>45915</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D102">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="E102">
-        <v>35.34</v>
+        <v>12.3</v>
       </c>
       <c r="F102">
-        <v>21204</v>
+        <v>19680</v>
       </c>
       <c r="G102" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H102">
-        <v>1852.000000000004</v>
+        <v>16.0000000000025</v>
       </c>
       <c r="I102" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="3">
-        <v>45924</v>
+      <c r="A103" s="2">
+        <v>45915.39652777778</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D103">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="E103">
-        <v>4.57</v>
+        <v>6.8</v>
       </c>
       <c r="F103">
-        <v>19651</v>
-      </c>
-      <c r="G103" t="s">
-        <v>104</v>
-      </c>
-      <c r="H103">
-        <v>-129.0000000000011</v>
+        <v>19720</v>
       </c>
       <c r="I103" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="3">
-        <v>45925</v>
+      <c r="A104" s="2">
+        <v>45915.39722222222</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D104">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E104">
-        <v>56.53</v>
+        <v>19.77</v>
       </c>
       <c r="F104">
-        <v>16959</v>
-      </c>
-      <c r="G104" t="s">
-        <v>105</v>
-      </c>
-      <c r="H104">
-        <v>1338.75</v>
+        <v>19770</v>
       </c>
       <c r="I104" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2">
-        <v>45925.39652777778</v>
+        <v>45915.40347222222</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D105">
-        <v>4600</v>
+        <v>500</v>
       </c>
       <c r="E105">
-        <v>4.286666666666666</v>
+        <v>38.08</v>
       </c>
       <c r="F105">
-        <v>19718.66666666666</v>
+        <v>19040</v>
       </c>
       <c r="I105" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2">
-        <v>45925.4</v>
+        <v>45915.40555555555</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D106">
-        <v>4900</v>
+        <v>1100</v>
       </c>
       <c r="E106">
-        <v>4.076666666666667</v>
+        <v>17.72</v>
       </c>
       <c r="F106">
-        <v>19975.66666666667</v>
+        <v>19492</v>
       </c>
       <c r="I106" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="2">
-        <v>45925.4</v>
+      <c r="A107" s="3">
+        <v>45916</v>
       </c>
       <c r="B107" t="s">
         <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D107">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E107">
-        <v>7.616666666666667</v>
+        <v>21.9</v>
       </c>
       <c r="F107">
-        <v>19803.33333333334</v>
+        <v>19710</v>
+      </c>
+      <c r="G107" t="s">
+        <v>128</v>
+      </c>
+      <c r="H107">
+        <v>-180.0000000000026</v>
       </c>
       <c r="I107" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="2">
-        <v>45925.47222222222</v>
+      <c r="A108" s="3">
+        <v>45916</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D108">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E108">
-        <v>32.41999999999999</v>
+        <v>19.09</v>
       </c>
       <c r="F108">
-        <v>19452</v>
+        <v>19090</v>
+      </c>
+      <c r="G108" t="s">
+        <v>128</v>
+      </c>
+      <c r="H108">
+        <v>-679.9999999999998</v>
       </c>
       <c r="I108" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="3">
-        <v>45926</v>
+      <c r="A109" s="2">
+        <v>45916.39652777778</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D109">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="E109">
-        <v>49.01</v>
+        <v>10.5</v>
       </c>
       <c r="F109">
-        <v>19604</v>
-      </c>
-      <c r="G109" t="s">
-        <v>104</v>
-      </c>
-      <c r="H109">
-        <v>133.3333333333314</v>
+        <v>19950</v>
       </c>
       <c r="I109" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="3">
-        <v>45926</v>
+      <c r="A110" s="2">
+        <v>45916.44027777778</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D110">
-        <v>4600</v>
+        <v>1500</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>13.32</v>
       </c>
       <c r="F110">
-        <v>18400</v>
-      </c>
-      <c r="G110" t="s">
-        <v>104</v>
-      </c>
-      <c r="H110">
-        <v>-1318.666666666664</v>
+        <v>19980</v>
       </c>
       <c r="I110" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="3">
-        <v>45926</v>
+        <v>45917</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D111">
-        <v>4900</v>
+        <v>400</v>
       </c>
       <c r="E111">
-        <v>3.81</v>
+        <v>49.65</v>
       </c>
       <c r="F111">
-        <v>18669</v>
+        <v>19860</v>
       </c>
       <c r="G111" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="H111">
-        <v>-1306.666666666669</v>
+        <v>3575.999999999999</v>
       </c>
       <c r="I111" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="3">
-        <v>45926</v>
+        <v>45917</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D112">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="E112">
-        <v>8.07</v>
+        <v>24.05</v>
       </c>
       <c r="F112">
-        <v>20982</v>
+        <v>19240</v>
       </c>
       <c r="G112" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H112">
-        <v>1178.666666666666</v>
+        <v>671.9999999999999</v>
       </c>
       <c r="I112" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="3">
-        <v>45926</v>
+        <v>45917</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D113">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E113">
-        <v>30.37</v>
+        <v>37.84</v>
       </c>
       <c r="F113">
-        <v>18222</v>
+        <v>18920</v>
       </c>
       <c r="G113" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H113">
-        <v>-1229.999999999996</v>
+        <v>-119.9999999999974</v>
       </c>
       <c r="I113" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="2">
-        <v>45926.39652777778</v>
+      <c r="A114" s="3">
+        <v>45917</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D114">
-        <v>5100</v>
+        <v>1900</v>
       </c>
       <c r="E114">
-        <v>3.87</v>
+        <v>11.54</v>
       </c>
       <c r="F114">
-        <v>19737</v>
+        <v>21926</v>
+      </c>
+      <c r="G114" t="s">
+        <v>127</v>
+      </c>
+      <c r="H114">
+        <v>1975.999999999998</v>
       </c>
       <c r="I114" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2">
-        <v>45926.41041666667</v>
+        <v>45917.39652777778</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C115" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D115">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E115">
-        <v>50.91249999999999</v>
+        <v>27.1</v>
       </c>
       <c r="F115">
-        <v>15273.75</v>
+        <v>18970</v>
       </c>
       <c r="I115" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2">
-        <v>45926.47708333333</v>
+        <v>45917.39722222222</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D116">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="E116">
-        <v>10.0425</v>
+        <v>23.7</v>
       </c>
       <c r="F116">
-        <v>19080.75</v>
+        <v>18960</v>
       </c>
       <c r="I116" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="3">
-        <v>45929</v>
+        <v>45918</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D117">
-        <v>5100</v>
+        <v>1400</v>
       </c>
       <c r="E117">
-        <v>3.8</v>
+        <v>14.76</v>
       </c>
       <c r="F117">
-        <v>19380</v>
+        <v>20664</v>
       </c>
       <c r="G117" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H117">
-        <v>-357.0000000000015</v>
+        <v>1441.999999999999</v>
       </c>
       <c r="I117" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="3">
-        <v>45929</v>
+        <v>45918</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D118">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E118">
-        <v>50.16</v>
+        <v>32.22</v>
       </c>
       <c r="F118">
-        <v>15048</v>
+        <v>19332</v>
       </c>
       <c r="G118" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H118">
-        <v>-225.7499999999993</v>
+        <v>227.9999999999994</v>
       </c>
       <c r="I118" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="3">
-        <v>45929</v>
+        <v>45918</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D119">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="E119">
-        <v>10.05</v>
+        <v>14.45</v>
       </c>
       <c r="F119">
-        <v>19095</v>
+        <v>21675</v>
       </c>
       <c r="G119" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="H119">
-        <v>14.25000000000054</v>
+        <v>1694.999999999998</v>
       </c>
       <c r="I119" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="2">
-        <v>45929.39652777778</v>
+      <c r="A120" s="3">
+        <v>45918</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D120">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E120">
-        <v>32.82333333333333</v>
+        <v>23.15</v>
       </c>
       <c r="F120">
-        <v>19694</v>
+        <v>18520</v>
+      </c>
+      <c r="G120" t="s">
+        <v>128</v>
+      </c>
+      <c r="H120">
+        <v>-440.0000000000006</v>
       </c>
       <c r="I120" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2">
-        <v>45929.39652777778</v>
+        <v>45918.40972222222</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D121">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E121">
-        <v>18.27</v>
+        <v>36.31</v>
       </c>
       <c r="F121">
-        <v>18270</v>
+        <v>18155</v>
       </c>
       <c r="I121" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="3">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D122">
-        <v>600</v>
+        <v>2900</v>
       </c>
       <c r="E122">
-        <v>30.51</v>
+        <v>7.89</v>
       </c>
       <c r="F122">
-        <v>18306</v>
+        <v>22881</v>
       </c>
       <c r="G122" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H122">
-        <v>-1387.999999999997</v>
+        <v>3161</v>
       </c>
       <c r="I122" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="3">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D123">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E123">
-        <v>17.61</v>
+        <v>26.72</v>
       </c>
       <c r="F123">
-        <v>17610</v>
+        <v>18704</v>
       </c>
       <c r="G123" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H123">
-        <v>-660.0000000000001</v>
+        <v>-266.0000000000018</v>
       </c>
       <c r="I123" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="2">
-        <v>45930.39652777778</v>
+      <c r="A124" s="3">
+        <v>45919</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D124">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E124">
-        <v>19.79666666666667</v>
+        <v>35.49</v>
       </c>
       <c r="F124">
-        <v>19796.66666666667</v>
+        <v>17745</v>
+      </c>
+      <c r="G124" t="s">
+        <v>128</v>
+      </c>
+      <c r="H124">
+        <v>-410.0000000000001</v>
       </c>
       <c r="I124" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2">
-        <v>45930.39652777778</v>
+        <v>45919.39652777778</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D125">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E125">
-        <v>36.19</v>
+        <v>52.47</v>
       </c>
       <c r="F125">
-        <v>18095</v>
+        <v>15741</v>
       </c>
       <c r="I125" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2">
-        <v>45930.4</v>
+        <v>45919.40625</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D126">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="E126">
-        <v>11.13666666666666</v>
+        <v>19.35</v>
       </c>
       <c r="F126">
-        <v>18932.33333333333</v>
+        <v>19350</v>
       </c>
       <c r="I126" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="3">
-        <v>45939</v>
+      <c r="A127" s="2">
+        <v>45922.39652777778</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C127" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D127">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E127">
-        <v>18.48</v>
+        <v>18.12</v>
       </c>
       <c r="F127">
-        <v>18480</v>
-      </c>
-      <c r="G127" t="s">
-        <v>104</v>
-      </c>
-      <c r="H127">
-        <v>-1316.666666666667</v>
+        <v>19932</v>
       </c>
       <c r="I127" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="3">
-        <v>45939</v>
+      <c r="A128" s="2">
+        <v>45922.39652777778</v>
       </c>
       <c r="B128" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C128" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D128">
         <v>500</v>
       </c>
       <c r="E128">
-        <v>38.35</v>
+        <v>39.71</v>
       </c>
       <c r="F128">
-        <v>19175</v>
-      </c>
-      <c r="G128" t="s">
-        <v>105</v>
-      </c>
-      <c r="H128">
-        <v>1080.000000000002</v>
+        <v>19855</v>
       </c>
       <c r="I128" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2">
-        <v>45943.39583333334</v>
+        <v>45922.40069444444</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D129">
-        <v>4500</v>
+        <v>400</v>
       </c>
       <c r="E129">
-        <v>4.39</v>
+        <v>47.87</v>
       </c>
       <c r="F129">
-        <v>19755</v>
+        <v>19148</v>
       </c>
       <c r="I129" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2">
-        <v>45943.39652777778</v>
+        <v>45922.4125</v>
       </c>
       <c r="B130" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C130" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D130">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="E130">
-        <v>8.704999999999998</v>
+        <v>32.15</v>
       </c>
       <c r="F130">
-        <v>19151</v>
+        <v>19290</v>
       </c>
       <c r="I130" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="2">
-        <v>45943.39652777778</v>
+      <c r="A131" s="3">
+        <v>45923</v>
       </c>
       <c r="B131" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C131" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D131">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E131">
-        <v>19.585</v>
+        <v>20.57</v>
       </c>
       <c r="F131">
-        <v>19585</v>
+        <v>22627</v>
+      </c>
+      <c r="G131" t="s">
+        <v>127</v>
+      </c>
+      <c r="H131">
+        <v>3135.000000000001</v>
       </c>
       <c r="I131" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="2">
-        <v>45943.39652777778</v>
+      <c r="A132" s="3">
+        <v>45923</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D132">
-        <v>4400</v>
+        <v>500</v>
       </c>
       <c r="E132">
-        <v>4.495</v>
+        <v>42.82</v>
       </c>
       <c r="F132">
-        <v>19778</v>
+        <v>21410</v>
+      </c>
+      <c r="G132" t="s">
+        <v>127</v>
+      </c>
+      <c r="H132">
+        <v>1555</v>
       </c>
       <c r="I132" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2">
-        <v>45943.39722222222</v>
+        <v>45923.39791666667</v>
       </c>
       <c r="B133" t="s">
         <v>74</v>
       </c>
       <c r="C133" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D133">
-        <v>1300</v>
+        <v>4300</v>
       </c>
       <c r="E133">
-        <v>15.33</v>
+        <v>4.64</v>
       </c>
       <c r="F133">
-        <v>19929</v>
+        <v>19952</v>
       </c>
       <c r="I133" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="2">
-        <v>45943.425</v>
+      <c r="A134" s="3">
+        <v>45924</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C134" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D134">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="E134">
-        <v>7.56</v>
+        <v>21.45</v>
       </c>
       <c r="F134">
-        <v>19656</v>
+        <v>21450</v>
+      </c>
+      <c r="G134" t="s">
+        <v>129</v>
+      </c>
+      <c r="H134">
+        <v>2099.999999999998</v>
       </c>
       <c r="I134" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="3">
-        <v>45944</v>
+        <v>45924</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C135" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D135">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="E135">
-        <v>12.46</v>
+        <v>18.45</v>
       </c>
       <c r="F135">
-        <v>21182</v>
+        <v>20295</v>
       </c>
       <c r="G135" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="H135">
-        <v>2249.666666666671</v>
+        <v>362.9999999999981</v>
       </c>
       <c r="I135" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="3">
-        <v>45944</v>
+        <v>45924</v>
       </c>
       <c r="B136" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C136" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D136">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E136">
-        <v>21.7</v>
+        <v>35.34</v>
       </c>
       <c r="F136">
-        <v>21700</v>
+        <v>21204</v>
       </c>
       <c r="G136" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H136">
-        <v>2114.999999999999</v>
+        <v>1914.000000000003</v>
       </c>
       <c r="I136" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="2">
-        <v>45945.39652777778</v>
+      <c r="A137" s="3">
+        <v>45924</v>
       </c>
       <c r="B137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137">
+        <v>4300</v>
+      </c>
+      <c r="E137">
+        <v>4.57</v>
+      </c>
+      <c r="F137">
+        <v>19651</v>
+      </c>
+      <c r="G137" t="s">
+        <v>128</v>
+      </c>
+      <c r="H137">
+        <v>-300.9999999999974</v>
+      </c>
+      <c r="I137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="3">
+        <v>45925</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>126</v>
+      </c>
+      <c r="D138">
+        <v>300</v>
+      </c>
+      <c r="E138">
+        <v>56.53</v>
+      </c>
+      <c r="F138">
+        <v>16959</v>
+      </c>
+      <c r="G138" t="s">
+        <v>129</v>
+      </c>
+      <c r="H138">
+        <v>1218.000000000001</v>
+      </c>
+      <c r="I138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="2">
+        <v>45925.39652777778</v>
+      </c>
+      <c r="B139" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139">
+        <v>4600</v>
+      </c>
+      <c r="E139">
+        <v>4.3</v>
+      </c>
+      <c r="F139">
+        <v>19780</v>
+      </c>
+      <c r="I139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="2">
+        <v>45925.4</v>
+      </c>
+      <c r="B140" t="s">
         <v>76</v>
       </c>
-      <c r="C137" t="s">
-        <v>101</v>
-      </c>
-      <c r="D137">
-        <v>3900</v>
-      </c>
-      <c r="E137">
-        <v>5.04</v>
-      </c>
-      <c r="F137">
-        <v>19656</v>
-      </c>
-      <c r="I137" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="2">
-        <v>45945.39722222222</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="C140" t="s">
+        <v>125</v>
+      </c>
+      <c r="D140">
+        <v>4800</v>
+      </c>
+      <c r="E140">
+        <v>4.09</v>
+      </c>
+      <c r="F140">
+        <v>19632</v>
+      </c>
+      <c r="I140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="2">
+        <v>45925.4</v>
+      </c>
+      <c r="B141" t="s">
         <v>77</v>
       </c>
-      <c r="C138" t="s">
-        <v>101</v>
-      </c>
-      <c r="D138">
-        <v>800</v>
-      </c>
-      <c r="E138">
-        <v>23.04666666666667</v>
-      </c>
-      <c r="F138">
-        <v>18437.33333333333</v>
-      </c>
-      <c r="I138" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="3">
-        <v>45946</v>
-      </c>
-      <c r="B139" t="s">
-        <v>70</v>
-      </c>
-      <c r="C139" t="s">
-        <v>102</v>
-      </c>
-      <c r="D139">
-        <v>4500</v>
-      </c>
-      <c r="E139">
-        <v>4.45</v>
-      </c>
-      <c r="F139">
-        <v>20025</v>
-      </c>
-      <c r="G139" t="s">
-        <v>104</v>
-      </c>
-      <c r="H139">
-        <v>270.0000000000022</v>
-      </c>
-      <c r="I139" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="3">
-        <v>45946</v>
-      </c>
-      <c r="B140" t="s">
-        <v>71</v>
-      </c>
-      <c r="C140" t="s">
-        <v>102</v>
-      </c>
-      <c r="D140">
-        <v>2200</v>
-      </c>
-      <c r="E140">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F140">
-        <v>20614</v>
-      </c>
-      <c r="G140" t="s">
-        <v>105</v>
-      </c>
-      <c r="H140">
-        <v>1463.000000000002</v>
-      </c>
-      <c r="I140" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="3">
-        <v>45946</v>
-      </c>
-      <c r="B141" t="s">
-        <v>73</v>
-      </c>
       <c r="C141" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D141">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="E141">
-        <v>4.95</v>
+        <v>7.65</v>
       </c>
       <c r="F141">
-        <v>21780</v>
-      </c>
-      <c r="G141" t="s">
-        <v>103</v>
-      </c>
-      <c r="H141">
-        <v>2002</v>
+        <v>19890</v>
       </c>
       <c r="I141" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="3">
-        <v>45946</v>
+      <c r="A142" s="2">
+        <v>45925.47083333333</v>
       </c>
       <c r="B142" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D142">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E142">
-        <v>16.45</v>
+        <v>32.63</v>
       </c>
       <c r="F142">
-        <v>21385</v>
-      </c>
-      <c r="G142" t="s">
-        <v>104</v>
-      </c>
-      <c r="H142">
-        <v>1456.000000000001</v>
+        <v>19578</v>
       </c>
       <c r="I142" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="3">
-        <v>45946</v>
+        <v>45926</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C143" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D143">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="E143">
-        <v>7.53</v>
+        <v>49.01</v>
       </c>
       <c r="F143">
-        <v>19578</v>
+        <v>19604</v>
       </c>
       <c r="G143" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H143">
-        <v>-78.00000000000065</v>
+        <v>456.0000000000002</v>
       </c>
       <c r="I143" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="3">
-        <v>45946</v>
+        <v>45926</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D144">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="E144">
-        <v>4.98</v>
+        <v>4</v>
       </c>
       <c r="F144">
-        <v>19422</v>
+        <v>18400</v>
       </c>
       <c r="G144" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H144">
-        <v>-233.9999999999985</v>
+        <v>-1379.999999999999</v>
       </c>
       <c r="I144" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="3">
-        <v>45946</v>
+        <v>45926</v>
       </c>
       <c r="B145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" t="s">
+        <v>126</v>
+      </c>
+      <c r="D145">
+        <v>4800</v>
+      </c>
+      <c r="E145">
+        <v>3.81</v>
+      </c>
+      <c r="F145">
+        <v>18288</v>
+      </c>
+      <c r="G145" t="s">
+        <v>128</v>
+      </c>
+      <c r="H145">
+        <v>-1343.999999999999</v>
+      </c>
+      <c r="I145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="3">
+        <v>45926</v>
+      </c>
+      <c r="B146" t="s">
         <v>77</v>
       </c>
-      <c r="C145" t="s">
-        <v>102</v>
-      </c>
-      <c r="D145">
-        <v>800</v>
-      </c>
-      <c r="E145">
-        <v>22.51</v>
-      </c>
-      <c r="F145">
-        <v>18008</v>
-      </c>
-      <c r="G145" t="s">
-        <v>104</v>
-      </c>
-      <c r="H145">
-        <v>-429.3333333333322</v>
-      </c>
-      <c r="I145" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="2">
-        <v>45946.39722222222</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>126</v>
+      </c>
+      <c r="D146">
+        <v>2600</v>
+      </c>
+      <c r="E146">
+        <v>8.07</v>
+      </c>
+      <c r="F146">
+        <v>20982</v>
+      </c>
+      <c r="G146" t="s">
+        <v>129</v>
+      </c>
+      <c r="H146">
+        <v>1092</v>
+      </c>
+      <c r="I146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="3">
+        <v>45926</v>
+      </c>
+      <c r="B147" t="s">
         <v>78</v>
       </c>
-      <c r="C146" t="s">
-        <v>101</v>
-      </c>
-      <c r="D146">
-        <v>800</v>
-      </c>
-      <c r="E146">
-        <v>24.74</v>
-      </c>
-      <c r="F146">
-        <v>19792</v>
-      </c>
-      <c r="I146" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="2">
-        <v>45946.40694444445</v>
-      </c>
-      <c r="B147" t="s">
-        <v>79</v>
-      </c>
       <c r="C147" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D147">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="E147">
-        <v>8.23</v>
+        <v>30.37</v>
       </c>
       <c r="F147">
-        <v>19752</v>
+        <v>18222</v>
+      </c>
+      <c r="G147" t="s">
+        <v>128</v>
+      </c>
+      <c r="H147">
+        <v>-1356.000000000001</v>
       </c>
       <c r="I147" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="3">
-        <v>45947</v>
+      <c r="A148" s="2">
+        <v>45926.39861111111</v>
       </c>
       <c r="B148" t="s">
         <v>79</v>
       </c>
       <c r="C148" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D148">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="E148">
-        <v>7.95</v>
+        <v>3.94</v>
       </c>
       <c r="F148">
-        <v>19080</v>
-      </c>
-      <c r="G148" t="s">
-        <v>104</v>
-      </c>
-      <c r="H148">
-        <v>-672.0000000000006</v>
+        <v>19700</v>
       </c>
       <c r="I148" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2">
-        <v>45947.39652777778</v>
+        <v>45926.40208333333</v>
       </c>
       <c r="B149" t="s">
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D149">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="E149">
-        <v>6.3925</v>
+        <v>7.42</v>
       </c>
       <c r="F149">
-        <v>19816.75</v>
+        <v>19292</v>
       </c>
       <c r="I149" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2">
-        <v>45947.40833333333</v>
+        <v>45926.40486111111</v>
       </c>
       <c r="B150" t="s">
         <v>81</v>
       </c>
       <c r="C150" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D150">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E150">
-        <v>20.1075</v>
+        <v>51.8</v>
       </c>
       <c r="F150">
-        <v>18096.75</v>
+        <v>15540</v>
       </c>
       <c r="I150" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2">
-        <v>45947.47708333333</v>
+        <v>45926.41041666667</v>
       </c>
       <c r="B151" t="s">
         <v>82</v>
       </c>
       <c r="C151" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D151">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E151">
-        <v>10.61</v>
+        <v>10.26</v>
       </c>
       <c r="F151">
-        <v>19098</v>
+        <v>19494</v>
       </c>
       <c r="I151" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="3">
-        <v>45950</v>
+        <v>45929</v>
       </c>
       <c r="B152" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C152" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D152">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="E152">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="F152">
-        <v>18941</v>
+        <v>19000</v>
       </c>
       <c r="G152" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H152">
-        <v>-875.7499999999992</v>
+        <v>-700.0000000000006</v>
       </c>
       <c r="I152" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="3">
-        <v>45950</v>
+        <v>45929</v>
       </c>
       <c r="B153" t="s">
         <v>81</v>
       </c>
       <c r="C153" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D153">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E153">
-        <v>19.48</v>
+        <v>50.16</v>
       </c>
       <c r="F153">
-        <v>17532</v>
+        <v>15048</v>
       </c>
       <c r="G153" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H153">
-        <v>-564.7500000000011</v>
+        <v>-492.0000000000002</v>
       </c>
       <c r="I153" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="3">
-        <v>45950</v>
+        <v>45929</v>
       </c>
       <c r="B154" t="s">
         <v>82</v>
       </c>
       <c r="C154" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D154">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E154">
-        <v>10.43</v>
+        <v>10.05</v>
       </c>
       <c r="F154">
-        <v>18774</v>
+        <v>19095</v>
       </c>
       <c r="G154" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H154">
-        <v>-323.9999999999995</v>
+        <v>-398.9999999999982</v>
       </c>
       <c r="I154" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="2">
-        <v>45950.40416666667</v>
+        <v>45929.39652777778</v>
       </c>
       <c r="B155" t="s">
+        <v>68</v>
+      </c>
+      <c r="C155" t="s">
+        <v>125</v>
+      </c>
+      <c r="D155">
+        <v>600</v>
+      </c>
+      <c r="E155">
+        <v>32.72</v>
+      </c>
+      <c r="F155">
+        <v>19632</v>
+      </c>
+      <c r="I155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2">
+        <v>45929.39652777778</v>
+      </c>
+      <c r="B156" t="s">
         <v>83</v>
       </c>
-      <c r="C155" t="s">
-        <v>101</v>
-      </c>
-      <c r="D155">
-        <v>3700</v>
-      </c>
-      <c r="E155">
-        <v>5.393333333333334</v>
-      </c>
-      <c r="F155">
-        <v>19955.33333333334</v>
-      </c>
-      <c r="I155" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="3">
-        <v>45951</v>
-      </c>
-      <c r="B156" t="s">
-        <v>78</v>
-      </c>
       <c r="C156" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D156">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E156">
-        <v>27.6</v>
+        <v>18.28</v>
       </c>
       <c r="F156">
-        <v>22080</v>
-      </c>
-      <c r="G156" t="s">
-        <v>105</v>
-      </c>
-      <c r="H156">
-        <v>2288.000000000002</v>
+        <v>18280</v>
       </c>
       <c r="I156" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="2">
-        <v>45952.40138888889</v>
+      <c r="A157" s="3">
+        <v>45930</v>
       </c>
       <c r="B157" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C157" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D157">
-        <v>4800</v>
+        <v>2600</v>
       </c>
       <c r="E157">
-        <v>4.149999999999999</v>
+        <v>7.26</v>
       </c>
       <c r="F157">
-        <v>19920</v>
+        <v>18876</v>
+      </c>
+      <c r="G157" t="s">
+        <v>128</v>
+      </c>
+      <c r="H157">
+        <v>-416.0000000000003</v>
       </c>
       <c r="I157" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="2">
-        <v>45952.56736111111</v>
+      <c r="A158" s="3">
+        <v>45930</v>
       </c>
       <c r="B158" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C158" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D158">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E158">
-        <v>12.53</v>
+        <v>30.51</v>
       </c>
       <c r="F158">
-        <v>18795</v>
+        <v>18306</v>
+      </c>
+      <c r="G158" t="s">
+        <v>128</v>
+      </c>
+      <c r="H158">
+        <v>-1325.999999999998</v>
       </c>
       <c r="I158" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="3">
-        <v>45953</v>
+        <v>45930</v>
       </c>
       <c r="B159" t="s">
         <v>83</v>
       </c>
       <c r="C159" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D159">
-        <v>3700</v>
+        <v>1000</v>
       </c>
       <c r="E159">
-        <v>5.49</v>
+        <v>17.61</v>
       </c>
       <c r="F159">
-        <v>20313</v>
+        <v>17610</v>
       </c>
       <c r="G159" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H159">
-        <v>357.6666666666667</v>
+        <v>-670.0000000000017</v>
       </c>
       <c r="I159" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:9">
-      <c r="A160" s="3">
-        <v>45953</v>
+      <c r="A160" s="2">
+        <v>45930.39652777778</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D160">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E160">
-        <v>12.49</v>
+        <v>36.21</v>
       </c>
       <c r="F160">
-        <v>18735</v>
-      </c>
-      <c r="G160" t="s">
-        <v>104</v>
-      </c>
-      <c r="H160">
-        <v>-59.99999999999872</v>
+        <v>18105</v>
       </c>
       <c r="I160" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2">
-        <v>45953.39652777778</v>
+        <v>45930.39652777778</v>
       </c>
       <c r="B161" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C161" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D161">
-        <v>6400</v>
+        <v>1900</v>
       </c>
       <c r="E161">
-        <v>3.083333333333333</v>
+        <v>10.03</v>
       </c>
       <c r="F161">
-        <v>19733.33333333334</v>
+        <v>19057</v>
       </c>
       <c r="I161" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2">
-        <v>45953.39652777778</v>
+        <v>45930.39652777778</v>
       </c>
       <c r="B162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C162" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D162">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E162">
-        <v>9.806666666666667</v>
+        <v>11.18</v>
       </c>
       <c r="F162">
-        <v>19613.33333333333</v>
+        <v>19006</v>
       </c>
       <c r="I162" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="2">
-        <v>45953.4</v>
+      <c r="A163" s="3">
+        <v>45939</v>
       </c>
       <c r="B163" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C163" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D163">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="E163">
-        <v>6.25</v>
+        <v>38.35</v>
       </c>
       <c r="F163">
-        <v>20000</v>
+        <v>19175</v>
+      </c>
+      <c r="G163" t="s">
+        <v>129</v>
+      </c>
+      <c r="H163">
+        <v>1070</v>
       </c>
       <c r="I163" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="2">
-        <v>45953.40069444444</v>
+      <c r="A164" s="3">
+        <v>45940</v>
       </c>
       <c r="B164" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C164" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D164">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E164">
-        <v>9.85</v>
+        <v>9.91</v>
       </c>
       <c r="F164">
-        <v>19700</v>
+        <v>18829</v>
+      </c>
+      <c r="G164" t="s">
+        <v>128</v>
+      </c>
+      <c r="H164">
+        <v>-227.9999999999985</v>
       </c>
       <c r="I164" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="2">
-        <v>45953.40763888889</v>
+        <v>45943.39652777778</v>
       </c>
       <c r="B165" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C165" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D165">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="E165">
-        <v>2.823333333333334</v>
+        <v>19.62</v>
       </c>
       <c r="F165">
-        <v>19763.33333333334</v>
+        <v>19620</v>
       </c>
       <c r="I165" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2">
-        <v>45953.4125</v>
+        <v>45943.39652777778</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C166" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D166">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E166">
-        <v>4.713333333333334</v>
+        <v>4.55</v>
       </c>
       <c r="F166">
-        <v>19796</v>
+        <v>19565</v>
       </c>
       <c r="I166" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="2">
-        <v>45953.45416666667</v>
+        <v>45943.39652777778</v>
       </c>
       <c r="B167" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C167" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D167">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="E167">
-        <v>18.34666666666667</v>
+        <v>4.44</v>
       </c>
       <c r="F167">
-        <v>18346.66666666667</v>
+        <v>19980</v>
       </c>
       <c r="I167" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="3">
-        <v>45954</v>
+      <c r="A168" s="2">
+        <v>45943.39652777778</v>
       </c>
       <c r="B168" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C168" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D168">
-        <v>4800</v>
+        <v>800</v>
       </c>
       <c r="E168">
-        <v>4.12</v>
+        <v>22.47</v>
       </c>
       <c r="F168">
-        <v>19776</v>
-      </c>
-      <c r="G168" t="s">
-        <v>103</v>
-      </c>
-      <c r="H168">
-        <v>-143.9999999999969</v>
+        <v>17976</v>
       </c>
       <c r="I168" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="3">
-        <v>45954</v>
+      <c r="A169" s="2">
+        <v>45943.42916666667</v>
       </c>
       <c r="B169" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C169" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D169">
-        <v>6400</v>
+        <v>2600</v>
       </c>
       <c r="E169">
-        <v>3.04</v>
+        <v>7.53</v>
       </c>
       <c r="F169">
-        <v>19456</v>
-      </c>
-      <c r="G169" t="s">
-        <v>104</v>
-      </c>
-      <c r="H169">
-        <v>-277.3333333333341</v>
+        <v>19578</v>
       </c>
       <c r="I169" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="3">
-        <v>45954</v>
+        <v>45944</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C170" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D170">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E170">
-        <v>9.59</v>
+        <v>12.46</v>
       </c>
       <c r="F170">
-        <v>19180</v>
+        <v>21182</v>
       </c>
       <c r="G170" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H170">
-        <v>-433.3333333333336</v>
+        <v>2176.000000000002</v>
       </c>
       <c r="I170" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="3">
-        <v>45954</v>
+        <v>45944</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C171" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D171">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="E171">
-        <v>6.12</v>
+        <v>21.7</v>
       </c>
       <c r="F171">
-        <v>19584</v>
+        <v>21700</v>
       </c>
       <c r="G171" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="H171">
-        <v>-415.9999999999997</v>
+        <v>2079.999999999998</v>
       </c>
       <c r="I171" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="3">
-        <v>45954</v>
+      <c r="A172" s="2">
+        <v>45944.54583333333</v>
       </c>
       <c r="B172" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C172" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D172">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="E172">
-        <v>2.79</v>
+        <v>8.92</v>
       </c>
       <c r="F172">
-        <v>19530</v>
-      </c>
-      <c r="G172" t="s">
-        <v>104</v>
-      </c>
-      <c r="H172">
-        <v>-233.3333333333356</v>
+        <v>19624</v>
       </c>
       <c r="I172" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:9">
-      <c r="A173" s="3">
-        <v>45954</v>
+      <c r="A173" s="2">
+        <v>45945.39652777778</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C173" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D173">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="E173">
-        <v>18</v>
+        <v>5.06</v>
       </c>
       <c r="F173">
-        <v>18000</v>
-      </c>
-      <c r="G173" t="s">
-        <v>104</v>
-      </c>
-      <c r="H173">
-        <v>-346.6666666666675</v>
+        <v>19734</v>
       </c>
       <c r="I173" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="2">
-        <v>45954.39652777778</v>
+        <v>45945.39652777778</v>
       </c>
       <c r="B174" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C174" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D174">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="E174">
-        <v>6.92</v>
+        <v>23.25</v>
       </c>
       <c r="F174">
-        <v>19376</v>
+        <v>18600</v>
       </c>
       <c r="I174" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="2">
-        <v>45954.39722222222</v>
+        <v>45945.45763888889</v>
       </c>
       <c r="B175" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D175">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E175">
-        <v>19.05</v>
+        <v>26.07</v>
       </c>
       <c r="F175">
-        <v>19050</v>
+        <v>18249</v>
       </c>
       <c r="I175" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="2">
-        <v>45954.40416666667</v>
+      <c r="A176" s="3">
+        <v>45946</v>
       </c>
       <c r="B176" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C176" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D176">
-        <v>500</v>
+        <v>4300</v>
       </c>
       <c r="E176">
-        <v>39.4725</v>
+        <v>4.95</v>
       </c>
       <c r="F176">
-        <v>19736.25</v>
+        <v>21285</v>
+      </c>
+      <c r="G176" t="s">
+        <v>127</v>
+      </c>
+      <c r="H176">
+        <v>1720.000000000002</v>
       </c>
       <c r="I176" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="2">
-        <v>45954.4125</v>
+      <c r="A177" s="3">
+        <v>45946</v>
       </c>
       <c r="B177" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C177" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D177">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="E177">
-        <v>6.172499999999999</v>
+        <v>4.45</v>
       </c>
       <c r="F177">
-        <v>19752</v>
+        <v>20025</v>
+      </c>
+      <c r="G177" t="s">
+        <v>128</v>
+      </c>
+      <c r="H177">
+        <v>44.99999999999904</v>
       </c>
       <c r="I177" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="3">
-        <v>45957</v>
+        <v>45946</v>
       </c>
       <c r="B178" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C178" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D178">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E178">
-        <v>21.56</v>
+        <v>21.97</v>
       </c>
       <c r="F178">
-        <v>21560</v>
+        <v>17576</v>
       </c>
       <c r="G178" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H178">
-        <v>2509.999999999998</v>
+        <v>-400</v>
       </c>
       <c r="I178" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="3">
-        <v>45957</v>
+        <v>45946</v>
       </c>
       <c r="B179" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C179" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D179">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="E179">
-        <v>38.77</v>
+        <v>7.53</v>
       </c>
       <c r="F179">
-        <v>19385</v>
+        <v>19578</v>
       </c>
       <c r="G179" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H179">
-        <v>-351.2499999999967</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="2">
-        <v>45957.42916666667</v>
+      <c r="A180" s="3">
+        <v>45946</v>
       </c>
       <c r="B180" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C180" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D180">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="E180">
-        <v>21.48333333333333</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F180">
-        <v>19335</v>
+        <v>20614</v>
+      </c>
+      <c r="G180" t="s">
+        <v>129</v>
+      </c>
+      <c r="H180">
+        <v>989.9999999999984</v>
       </c>
       <c r="I180" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="3">
-        <v>45959</v>
+        <v>45946</v>
       </c>
       <c r="B181" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C181" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D181">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="E181">
-        <v>11.07</v>
+        <v>4.98</v>
       </c>
       <c r="F181">
-        <v>22140</v>
+        <v>19422</v>
       </c>
       <c r="G181" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H181">
-        <v>2440.000000000001</v>
+        <v>-311.9999999999968</v>
       </c>
       <c r="I181" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="3">
-        <v>45960</v>
+        <v>45946</v>
       </c>
       <c r="B182" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C182" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D182">
-        <v>4200</v>
+        <v>800</v>
       </c>
       <c r="E182">
-        <v>4.76</v>
+        <v>22.51</v>
       </c>
       <c r="F182">
-        <v>19992</v>
+        <v>18008</v>
       </c>
       <c r="G182" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H182">
-        <v>195.9999999999971</v>
+        <v>-591.9999999999987</v>
       </c>
       <c r="I182" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="3">
-        <v>45960</v>
+        <v>45946</v>
       </c>
       <c r="B183" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D183">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="E183">
-        <v>7.18</v>
+        <v>25.41</v>
       </c>
       <c r="F183">
-        <v>20104</v>
+        <v>17787</v>
       </c>
       <c r="G183" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H183">
-        <v>727.9999999999994</v>
+        <v>-462.0000000000001</v>
       </c>
       <c r="I183" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="3">
-        <v>45960</v>
+      <c r="A184" s="2">
+        <v>45946.39583333334</v>
       </c>
       <c r="B184" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C184" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D184">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="E184">
-        <v>6.21</v>
+        <v>8.32</v>
       </c>
       <c r="F184">
-        <v>19872</v>
-      </c>
-      <c r="G184" t="s">
-        <v>104</v>
-      </c>
-      <c r="H184">
-        <v>120.0000000000017</v>
+        <v>19968</v>
       </c>
       <c r="I184" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2">
-        <v>45960.39652777778</v>
+        <v>45946.39722222222</v>
       </c>
       <c r="B185" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C185" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D185">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E185">
-        <v>55.35</v>
+        <v>24.85</v>
       </c>
       <c r="F185">
-        <v>16605</v>
+        <v>19880</v>
       </c>
       <c r="I185" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="1:9">
-      <c r="A186" s="2">
-        <v>45960.39722222222</v>
+      <c r="A186" s="3">
+        <v>45947</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C186" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D186">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="E186">
-        <v>53.47666666666667</v>
+        <v>7.95</v>
       </c>
       <c r="F186">
-        <v>16043</v>
+        <v>19080</v>
+      </c>
+      <c r="G186" t="s">
+        <v>128</v>
+      </c>
+      <c r="H186">
+        <v>-888.0000000000002</v>
       </c>
       <c r="I186" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2">
-        <v>45960.41875</v>
+        <v>45947.39652777778</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C187" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D187">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="E187">
-        <v>75.83</v>
+        <v>6.45</v>
       </c>
       <c r="F187">
-        <v>15166</v>
+        <v>19995</v>
       </c>
       <c r="I187" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2">
-        <v>45960.57777777778</v>
+        <v>45947.40277777778</v>
       </c>
       <c r="B188" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" t="s">
+        <v>125</v>
+      </c>
+      <c r="D188">
+        <v>900</v>
+      </c>
+      <c r="E188">
+        <v>20.41</v>
+      </c>
+      <c r="F188">
+        <v>18369</v>
+      </c>
+      <c r="I188" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="2">
+        <v>45947.40625</v>
+      </c>
+      <c r="B189" t="s">
         <v>99</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
+        <v>125</v>
+      </c>
+      <c r="D189">
+        <v>1700</v>
+      </c>
+      <c r="E189">
+        <v>11.66</v>
+      </c>
+      <c r="F189">
+        <v>19822</v>
+      </c>
+      <c r="I189" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="2">
+        <v>45947.42152777778</v>
+      </c>
+      <c r="B190" t="s">
+        <v>100</v>
+      </c>
+      <c r="C190" t="s">
+        <v>125</v>
+      </c>
+      <c r="D190">
+        <v>1800</v>
+      </c>
+      <c r="E190">
+        <v>10.81</v>
+      </c>
+      <c r="F190">
+        <v>19458</v>
+      </c>
+      <c r="I190" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="2">
+        <v>45947.43333333333</v>
+      </c>
+      <c r="B191" t="s">
         <v>101</v>
       </c>
-      <c r="D188">
-        <v>300</v>
-      </c>
-      <c r="E188">
-        <v>56.34666666666666</v>
-      </c>
-      <c r="F188">
-        <v>16904</v>
-      </c>
-      <c r="I188" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="3">
-        <v>45961</v>
-      </c>
-      <c r="B189" t="s">
-        <v>98</v>
-      </c>
-      <c r="C189" t="s">
-        <v>102</v>
-      </c>
-      <c r="D189">
-        <v>300</v>
-      </c>
-      <c r="E189">
-        <v>53.05</v>
-      </c>
-      <c r="F189">
-        <v>15915</v>
-      </c>
-      <c r="G189" t="s">
-        <v>104</v>
-      </c>
-      <c r="H189">
-        <v>-690.0000000000013</v>
-      </c>
-      <c r="I189" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="3">
-        <v>45961</v>
-      </c>
-      <c r="B190" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" t="s">
-        <v>102</v>
-      </c>
-      <c r="D190">
-        <v>300</v>
-      </c>
-      <c r="E190">
-        <v>51.26</v>
-      </c>
-      <c r="F190">
-        <v>15378</v>
-      </c>
-      <c r="G190" t="s">
-        <v>104</v>
-      </c>
-      <c r="H190">
-        <v>-665.0000000000006</v>
-      </c>
-      <c r="I190" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="3">
-        <v>45961</v>
-      </c>
-      <c r="B191" t="s">
-        <v>29</v>
-      </c>
       <c r="C191" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D191">
+        <v>500</v>
+      </c>
+      <c r="E191">
+        <v>39.39</v>
+      </c>
+      <c r="F191">
+        <v>19695</v>
+      </c>
+      <c r="I191" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="2">
+        <v>45947.47361111111</v>
+      </c>
+      <c r="B192" t="s">
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192">
         <v>200</v>
       </c>
-      <c r="E191">
-        <v>77.06</v>
-      </c>
-      <c r="F191">
-        <v>15412</v>
-      </c>
-      <c r="G191" t="s">
-        <v>105</v>
-      </c>
-      <c r="H191">
-        <v>246.0000000000008</v>
-      </c>
-      <c r="I191" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="3">
-        <v>45961</v>
-      </c>
-      <c r="B192" t="s">
-        <v>99</v>
-      </c>
-      <c r="C192" t="s">
-        <v>102</v>
-      </c>
-      <c r="D192">
-        <v>300</v>
-      </c>
       <c r="E192">
-        <v>55.98</v>
+        <v>73.93000000000001</v>
       </c>
       <c r="F192">
-        <v>16794</v>
-      </c>
-      <c r="G192" t="s">
-        <v>104</v>
-      </c>
-      <c r="H192">
-        <v>-110.0000000000001</v>
+        <v>14786</v>
       </c>
       <c r="I192" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="2">
-        <v>45961.39722222222</v>
+        <v>45947.6</v>
       </c>
       <c r="B193" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" t="s">
+        <v>125</v>
+      </c>
+      <c r="D193">
+        <v>900</v>
+      </c>
+      <c r="E193">
+        <v>20.55</v>
+      </c>
+      <c r="F193">
+        <v>18495</v>
+      </c>
+      <c r="I193" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B194" t="s">
+        <v>97</v>
+      </c>
+      <c r="C194" t="s">
+        <v>126</v>
+      </c>
+      <c r="D194">
+        <v>3100</v>
+      </c>
+      <c r="E194">
+        <v>6.11</v>
+      </c>
+      <c r="F194">
+        <v>18941</v>
+      </c>
+      <c r="G194" t="s">
+        <v>128</v>
+      </c>
+      <c r="H194">
+        <v>-1054</v>
+      </c>
+      <c r="I194" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B195" t="s">
+        <v>98</v>
+      </c>
+      <c r="C195" t="s">
+        <v>126</v>
+      </c>
+      <c r="D195">
+        <v>900</v>
+      </c>
+      <c r="E195">
+        <v>19.48</v>
+      </c>
+      <c r="F195">
+        <v>17532</v>
+      </c>
+      <c r="G195" t="s">
+        <v>128</v>
+      </c>
+      <c r="H195">
+        <v>-836.9999999999998</v>
+      </c>
+      <c r="I195" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B196" t="s">
         <v>100</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C196" t="s">
+        <v>126</v>
+      </c>
+      <c r="D196">
+        <v>1800</v>
+      </c>
+      <c r="E196">
+        <v>10.43</v>
+      </c>
+      <c r="F196">
+        <v>18774</v>
+      </c>
+      <c r="G196" t="s">
+        <v>128</v>
+      </c>
+      <c r="H196">
+        <v>-684.0000000000014</v>
+      </c>
+      <c r="I196" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B197" t="s">
         <v>101</v>
       </c>
-      <c r="D193">
+      <c r="C197" t="s">
+        <v>126</v>
+      </c>
+      <c r="D197">
+        <v>500</v>
+      </c>
+      <c r="E197">
+        <v>40.83</v>
+      </c>
+      <c r="F197">
+        <v>20415</v>
+      </c>
+      <c r="G197" t="s">
+        <v>129</v>
+      </c>
+      <c r="H197">
+        <v>719.9999999999989</v>
+      </c>
+      <c r="I197" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" t="s">
+        <v>126</v>
+      </c>
+      <c r="D198">
         <v>200</v>
       </c>
-      <c r="E193">
-        <v>67.08250000000001</v>
-      </c>
-      <c r="F193">
-        <v>13416.5</v>
-      </c>
-      <c r="I193" t="s">
+      <c r="E198">
+        <v>70.2</v>
+      </c>
+      <c r="F198">
+        <v>14040</v>
+      </c>
+      <c r="G198" t="s">
+        <v>128</v>
+      </c>
+      <c r="H198">
+        <v>-746.0000000000008</v>
+      </c>
+      <c r="I198" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B199" t="s">
+        <v>102</v>
+      </c>
+      <c r="C199" t="s">
+        <v>126</v>
+      </c>
+      <c r="D199">
+        <v>900</v>
+      </c>
+      <c r="E199">
+        <v>20.31</v>
+      </c>
+      <c r="F199">
+        <v>18279</v>
+      </c>
+      <c r="G199" t="s">
+        <v>128</v>
+      </c>
+      <c r="H199">
+        <v>-216.0000000000018</v>
+      </c>
+      <c r="I199" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="2">
+        <v>45950.40555555555</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="s">
+        <v>125</v>
+      </c>
+      <c r="D200">
+        <v>3700</v>
+      </c>
+      <c r="E200">
+        <v>5.38</v>
+      </c>
+      <c r="F200">
+        <v>19906</v>
+      </c>
+      <c r="I200" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B201" t="s">
+        <v>96</v>
+      </c>
+      <c r="C201" t="s">
+        <v>126</v>
+      </c>
+      <c r="D201">
+        <v>800</v>
+      </c>
+      <c r="E201">
+        <v>27.6</v>
+      </c>
+      <c r="F201">
+        <v>22080</v>
+      </c>
+      <c r="G201" t="s">
+        <v>129</v>
+      </c>
+      <c r="H201">
+        <v>2200</v>
+      </c>
+      <c r="I201" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B202" t="s">
+        <v>99</v>
+      </c>
+      <c r="C202" t="s">
+        <v>126</v>
+      </c>
+      <c r="D202">
+        <v>1700</v>
+      </c>
+      <c r="E202">
+        <v>12.79</v>
+      </c>
+      <c r="F202">
+        <v>21743</v>
+      </c>
+      <c r="G202" t="s">
+        <v>127</v>
+      </c>
+      <c r="H202">
+        <v>1920.999999999998</v>
+      </c>
+      <c r="I202" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="2">
+        <v>45951.40069444444</v>
+      </c>
+      <c r="B203" t="s">
+        <v>104</v>
+      </c>
+      <c r="C203" t="s">
+        <v>125</v>
+      </c>
+      <c r="D203">
+        <v>1000</v>
+      </c>
+      <c r="E203">
+        <v>18.45</v>
+      </c>
+      <c r="F203">
+        <v>18450</v>
+      </c>
+      <c r="I203" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="2">
+        <v>45952.39722222222</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" t="s">
+        <v>125</v>
+      </c>
+      <c r="D204">
+        <v>2000</v>
+      </c>
+      <c r="E204">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F204">
+        <v>19720</v>
+      </c>
+      <c r="I204" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="2">
+        <v>45952.4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>106</v>
+      </c>
+      <c r="C205" t="s">
+        <v>125</v>
+      </c>
+      <c r="D205">
+        <v>4700</v>
+      </c>
+      <c r="E205">
+        <v>4.18</v>
+      </c>
+      <c r="F205">
+        <v>19646</v>
+      </c>
+      <c r="I205" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="2">
+        <v>45952.55763888889</v>
+      </c>
+      <c r="B206" t="s">
         <v>107</v>
+      </c>
+      <c r="C206" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206">
+        <v>1500</v>
+      </c>
+      <c r="E206">
+        <v>12.56</v>
+      </c>
+      <c r="F206">
+        <v>18840</v>
+      </c>
+      <c r="I206" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B207" t="s">
+        <v>103</v>
+      </c>
+      <c r="C207" t="s">
+        <v>126</v>
+      </c>
+      <c r="D207">
+        <v>3700</v>
+      </c>
+      <c r="E207">
+        <v>5.49</v>
+      </c>
+      <c r="F207">
+        <v>20313</v>
+      </c>
+      <c r="G207" t="s">
+        <v>128</v>
+      </c>
+      <c r="H207">
+        <v>407.0000000000012</v>
+      </c>
+      <c r="I207" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" t="s">
+        <v>126</v>
+      </c>
+      <c r="D208">
+        <v>1500</v>
+      </c>
+      <c r="E208">
+        <v>12.49</v>
+      </c>
+      <c r="F208">
+        <v>18735</v>
+      </c>
+      <c r="G208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H208">
+        <v>-105.0000000000004</v>
+      </c>
+      <c r="I208" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="2">
+        <v>45953.39652777778</v>
+      </c>
+      <c r="B209" t="s">
+        <v>108</v>
+      </c>
+      <c r="C209" t="s">
+        <v>125</v>
+      </c>
+      <c r="D209">
+        <v>2000</v>
+      </c>
+      <c r="E209">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F209">
+        <v>19560</v>
+      </c>
+      <c r="I209" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="2">
+        <v>45953.39652777778</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
+      <c r="C210" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210">
+        <v>6400</v>
+      </c>
+      <c r="E210">
+        <v>3.09</v>
+      </c>
+      <c r="F210">
+        <v>19776</v>
+      </c>
+      <c r="I210" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="2">
+        <v>45953.39652777778</v>
+      </c>
+      <c r="B211" t="s">
+        <v>110</v>
+      </c>
+      <c r="C211" t="s">
+        <v>125</v>
+      </c>
+      <c r="D211">
+        <v>2000</v>
+      </c>
+      <c r="E211">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F211">
+        <v>19720</v>
+      </c>
+      <c r="I211" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="2">
+        <v>45953.4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>111</v>
+      </c>
+      <c r="C212" t="s">
+        <v>125</v>
+      </c>
+      <c r="D212">
+        <v>3100</v>
+      </c>
+      <c r="E212">
+        <v>6.26</v>
+      </c>
+      <c r="F212">
+        <v>19406</v>
+      </c>
+      <c r="I212" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="2">
+        <v>45953.40763888889</v>
+      </c>
+      <c r="B213" t="s">
+        <v>112</v>
+      </c>
+      <c r="C213" t="s">
+        <v>125</v>
+      </c>
+      <c r="D213">
+        <v>7000</v>
+      </c>
+      <c r="E213">
+        <v>2.82</v>
+      </c>
+      <c r="F213">
+        <v>19740</v>
+      </c>
+      <c r="I213" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="2">
+        <v>45953.4125</v>
+      </c>
+      <c r="B214" t="s">
+        <v>113</v>
+      </c>
+      <c r="C214" t="s">
+        <v>125</v>
+      </c>
+      <c r="D214">
+        <v>4200</v>
+      </c>
+      <c r="E214">
+        <v>4.74</v>
+      </c>
+      <c r="F214">
+        <v>19908</v>
+      </c>
+      <c r="I214" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="2">
+        <v>45953.43263888889</v>
+      </c>
+      <c r="B215" t="s">
+        <v>114</v>
+      </c>
+      <c r="C215" t="s">
+        <v>125</v>
+      </c>
+      <c r="D215">
+        <v>1000</v>
+      </c>
+      <c r="E215">
+        <v>18.56</v>
+      </c>
+      <c r="F215">
+        <v>18560</v>
+      </c>
+      <c r="I215" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B216" t="s">
+        <v>104</v>
+      </c>
+      <c r="C216" t="s">
+        <v>126</v>
+      </c>
+      <c r="D216">
+        <v>1000</v>
+      </c>
+      <c r="E216">
+        <v>18.33</v>
+      </c>
+      <c r="F216">
+        <v>18330</v>
+      </c>
+      <c r="G216" t="s">
+        <v>128</v>
+      </c>
+      <c r="H216">
+        <v>-120.000000000001</v>
+      </c>
+      <c r="I216" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B217" t="s">
+        <v>105</v>
+      </c>
+      <c r="C217" t="s">
+        <v>126</v>
+      </c>
+      <c r="D217">
+        <v>2000</v>
+      </c>
+      <c r="E217">
+        <v>9.92</v>
+      </c>
+      <c r="F217">
+        <v>19840</v>
+      </c>
+      <c r="G217" t="s">
+        <v>128</v>
+      </c>
+      <c r="H217">
+        <v>120.000000000001</v>
+      </c>
+      <c r="I217" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B218" t="s">
+        <v>106</v>
+      </c>
+      <c r="C218" t="s">
+        <v>126</v>
+      </c>
+      <c r="D218">
+        <v>4700</v>
+      </c>
+      <c r="E218">
+        <v>4.12</v>
+      </c>
+      <c r="F218">
+        <v>19364</v>
+      </c>
+      <c r="G218" t="s">
+        <v>127</v>
+      </c>
+      <c r="H218">
+        <v>-281.9999999999982</v>
+      </c>
+      <c r="I218" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C219" t="s">
+        <v>126</v>
+      </c>
+      <c r="D219">
+        <v>6400</v>
+      </c>
+      <c r="E219">
+        <v>3.04</v>
+      </c>
+      <c r="F219">
+        <v>19456</v>
+      </c>
+      <c r="G219" t="s">
+        <v>128</v>
+      </c>
+      <c r="H219">
+        <v>-319.9999999999989</v>
+      </c>
+      <c r="I219" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B220" t="s">
+        <v>110</v>
+      </c>
+      <c r="C220" t="s">
+        <v>126</v>
+      </c>
+      <c r="D220">
+        <v>2000</v>
+      </c>
+      <c r="E220">
+        <v>9.59</v>
+      </c>
+      <c r="F220">
+        <v>19180</v>
+      </c>
+      <c r="G220" t="s">
+        <v>128</v>
+      </c>
+      <c r="H220">
+        <v>-539.9999999999991</v>
+      </c>
+      <c r="I220" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B221" t="s">
+        <v>111</v>
+      </c>
+      <c r="C221" t="s">
+        <v>126</v>
+      </c>
+      <c r="D221">
+        <v>3100</v>
+      </c>
+      <c r="E221">
+        <v>6.12</v>
+      </c>
+      <c r="F221">
+        <v>18972</v>
+      </c>
+      <c r="G221" t="s">
+        <v>128</v>
+      </c>
+      <c r="H221">
+        <v>-433.999999999999</v>
+      </c>
+      <c r="I221" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B222" t="s">
+        <v>112</v>
+      </c>
+      <c r="C222" t="s">
+        <v>126</v>
+      </c>
+      <c r="D222">
+        <v>7000</v>
+      </c>
+      <c r="E222">
+        <v>2.79</v>
+      </c>
+      <c r="F222">
+        <v>19530</v>
+      </c>
+      <c r="G222" t="s">
+        <v>128</v>
+      </c>
+      <c r="H222">
+        <v>-209.9999999999986</v>
+      </c>
+      <c r="I222" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B223" t="s">
+        <v>114</v>
+      </c>
+      <c r="C223" t="s">
+        <v>126</v>
+      </c>
+      <c r="D223">
+        <v>1000</v>
+      </c>
+      <c r="E223">
+        <v>18</v>
+      </c>
+      <c r="F223">
+        <v>18000</v>
+      </c>
+      <c r="G223" t="s">
+        <v>128</v>
+      </c>
+      <c r="H223">
+        <v>-559.9999999999987</v>
+      </c>
+      <c r="I223" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="2">
+        <v>45954.39652777778</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" t="s">
+        <v>125</v>
+      </c>
+      <c r="D224">
+        <v>1000</v>
+      </c>
+      <c r="E224">
+        <v>19.6</v>
+      </c>
+      <c r="F224">
+        <v>19600</v>
+      </c>
+      <c r="I224" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="2">
+        <v>45954.39652777778</v>
+      </c>
+      <c r="B225" t="s">
+        <v>116</v>
+      </c>
+      <c r="C225" t="s">
+        <v>125</v>
+      </c>
+      <c r="D225">
+        <v>400</v>
+      </c>
+      <c r="E225">
+        <v>40.37</v>
+      </c>
+      <c r="F225">
+        <v>16148</v>
+      </c>
+      <c r="I225" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="2">
+        <v>45954.39652777778</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C226" t="s">
+        <v>125</v>
+      </c>
+      <c r="D226">
+        <v>1000</v>
+      </c>
+      <c r="E226">
+        <v>19.23</v>
+      </c>
+      <c r="F226">
+        <v>19230</v>
+      </c>
+      <c r="I226" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="2">
+        <v>45954.39652777778</v>
+      </c>
+      <c r="B227" t="s">
+        <v>118</v>
+      </c>
+      <c r="C227" t="s">
+        <v>125</v>
+      </c>
+      <c r="D227">
+        <v>2100</v>
+      </c>
+      <c r="E227">
+        <v>9.1</v>
+      </c>
+      <c r="F227">
+        <v>19110</v>
+      </c>
+      <c r="I227" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="2">
+        <v>45954.39722222222</v>
+      </c>
+      <c r="B228" t="s">
+        <v>66</v>
+      </c>
+      <c r="C228" t="s">
+        <v>125</v>
+      </c>
+      <c r="D228">
+        <v>1400</v>
+      </c>
+      <c r="E228">
+        <v>13.63</v>
+      </c>
+      <c r="F228">
+        <v>19082</v>
+      </c>
+      <c r="I228" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="2">
+        <v>45954.41388888889</v>
+      </c>
+      <c r="B229" t="s">
+        <v>119</v>
+      </c>
+      <c r="C229" t="s">
+        <v>125</v>
+      </c>
+      <c r="D229">
+        <v>3200</v>
+      </c>
+      <c r="E229">
+        <v>6.22</v>
+      </c>
+      <c r="F229">
+        <v>19904</v>
+      </c>
+      <c r="I229" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B230" t="s">
+        <v>116</v>
+      </c>
+      <c r="C230" t="s">
+        <v>126</v>
+      </c>
+      <c r="D230">
+        <v>400</v>
+      </c>
+      <c r="E230">
+        <v>38.77</v>
+      </c>
+      <c r="F230">
+        <v>15508</v>
+      </c>
+      <c r="G230" t="s">
+        <v>128</v>
+      </c>
+      <c r="H230">
+        <v>-639.9999999999977</v>
+      </c>
+      <c r="I230" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B231" t="s">
+        <v>117</v>
+      </c>
+      <c r="C231" t="s">
+        <v>126</v>
+      </c>
+      <c r="D231">
+        <v>1000</v>
+      </c>
+      <c r="E231">
+        <v>21.56</v>
+      </c>
+      <c r="F231">
+        <v>21560</v>
+      </c>
+      <c r="G231" t="s">
+        <v>127</v>
+      </c>
+      <c r="H231">
+        <v>2329.999999999998</v>
+      </c>
+      <c r="I231" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="2">
+        <v>45957.41736111111</v>
+      </c>
+      <c r="B232" t="s">
+        <v>120</v>
+      </c>
+      <c r="C232" t="s">
+        <v>125</v>
+      </c>
+      <c r="D232">
+        <v>900</v>
+      </c>
+      <c r="E232">
+        <v>21.62</v>
+      </c>
+      <c r="F232">
+        <v>19458</v>
+      </c>
+      <c r="I232" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B233" t="s">
+        <v>108</v>
+      </c>
+      <c r="C233" t="s">
+        <v>126</v>
+      </c>
+      <c r="D233">
+        <v>2000</v>
+      </c>
+      <c r="E233">
+        <v>11.07</v>
+      </c>
+      <c r="F233">
+        <v>22140</v>
+      </c>
+      <c r="G233" t="s">
+        <v>127</v>
+      </c>
+      <c r="H233">
+        <v>2580.000000000002</v>
+      </c>
+      <c r="I233" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B234" t="s">
+        <v>115</v>
+      </c>
+      <c r="C234" t="s">
+        <v>126</v>
+      </c>
+      <c r="D234">
+        <v>1000</v>
+      </c>
+      <c r="E234">
+        <v>19.88</v>
+      </c>
+      <c r="F234">
+        <v>19880</v>
+      </c>
+      <c r="G234" t="s">
+        <v>128</v>
+      </c>
+      <c r="H234">
+        <v>279.9999999999976</v>
+      </c>
+      <c r="I234" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B235" t="s">
+        <v>118</v>
+      </c>
+      <c r="C235" t="s">
+        <v>126</v>
+      </c>
+      <c r="D235">
+        <v>2100</v>
+      </c>
+      <c r="E235">
+        <v>9.23</v>
+      </c>
+      <c r="F235">
+        <v>19383</v>
+      </c>
+      <c r="G235" t="s">
+        <v>128</v>
+      </c>
+      <c r="H235">
+        <v>273.0000000000016</v>
+      </c>
+      <c r="I235" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B236" t="s">
+        <v>66</v>
+      </c>
+      <c r="C236" t="s">
+        <v>126</v>
+      </c>
+      <c r="D236">
+        <v>1400</v>
+      </c>
+      <c r="E236">
+        <v>13.69</v>
+      </c>
+      <c r="F236">
+        <v>19166</v>
+      </c>
+      <c r="G236" t="s">
+        <v>128</v>
+      </c>
+      <c r="H236">
+        <v>83.99999999999821</v>
+      </c>
+      <c r="I236" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B237" t="s">
+        <v>113</v>
+      </c>
+      <c r="C237" t="s">
+        <v>126</v>
+      </c>
+      <c r="D237">
+        <v>4200</v>
+      </c>
+      <c r="E237">
+        <v>4.76</v>
+      </c>
+      <c r="F237">
+        <v>19992</v>
+      </c>
+      <c r="G237" t="s">
+        <v>128</v>
+      </c>
+      <c r="H237">
+        <v>83.99999999999821</v>
+      </c>
+      <c r="I237" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B238" t="s">
+        <v>119</v>
+      </c>
+      <c r="C238" t="s">
+        <v>126</v>
+      </c>
+      <c r="D238">
+        <v>3200</v>
+      </c>
+      <c r="E238">
+        <v>6.21</v>
+      </c>
+      <c r="F238">
+        <v>19872</v>
+      </c>
+      <c r="G238" t="s">
+        <v>128</v>
+      </c>
+      <c r="H238">
+        <v>-31.99999999999932</v>
+      </c>
+      <c r="I238" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="2">
+        <v>45960.39652777778</v>
+      </c>
+      <c r="B239" t="s">
+        <v>121</v>
+      </c>
+      <c r="C239" t="s">
+        <v>125</v>
+      </c>
+      <c r="D239">
+        <v>300</v>
+      </c>
+      <c r="E239">
+        <v>55.54</v>
+      </c>
+      <c r="F239">
+        <v>16662</v>
+      </c>
+      <c r="I239" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="2">
+        <v>45960.39652777778</v>
+      </c>
+      <c r="B240" t="s">
+        <v>31</v>
+      </c>
+      <c r="C240" t="s">
+        <v>125</v>
+      </c>
+      <c r="D240">
+        <v>300</v>
+      </c>
+      <c r="E240">
+        <v>53.88</v>
+      </c>
+      <c r="F240">
+        <v>16164</v>
+      </c>
+      <c r="I240" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="2">
+        <v>45960.4125</v>
+      </c>
+      <c r="B241" t="s">
+        <v>40</v>
+      </c>
+      <c r="C241" t="s">
+        <v>125</v>
+      </c>
+      <c r="D241">
+        <v>200</v>
+      </c>
+      <c r="E241">
+        <v>76.26000000000001</v>
+      </c>
+      <c r="F241">
+        <v>15252</v>
+      </c>
+      <c r="I241" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="2">
+        <v>45960.57777777778</v>
+      </c>
+      <c r="B242" t="s">
+        <v>122</v>
+      </c>
+      <c r="C242" t="s">
+        <v>125</v>
+      </c>
+      <c r="D242">
+        <v>300</v>
+      </c>
+      <c r="E242">
+        <v>56.55</v>
+      </c>
+      <c r="F242">
+        <v>16965</v>
+      </c>
+      <c r="I242" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B243" t="s">
+        <v>121</v>
+      </c>
+      <c r="C243" t="s">
+        <v>126</v>
+      </c>
+      <c r="D243">
+        <v>300</v>
+      </c>
+      <c r="E243">
+        <v>53.05</v>
+      </c>
+      <c r="F243">
+        <v>15915</v>
+      </c>
+      <c r="G243" t="s">
+        <v>128</v>
+      </c>
+      <c r="H243">
+        <v>-747.0000000000006</v>
+      </c>
+      <c r="I243" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B244" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244" t="s">
+        <v>126</v>
+      </c>
+      <c r="D244">
+        <v>300</v>
+      </c>
+      <c r="E244">
+        <v>51.26</v>
+      </c>
+      <c r="F244">
+        <v>15378</v>
+      </c>
+      <c r="G244" t="s">
+        <v>128</v>
+      </c>
+      <c r="H244">
+        <v>-786.0000000000014</v>
+      </c>
+      <c r="I244" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B245" t="s">
+        <v>40</v>
+      </c>
+      <c r="C245" t="s">
+        <v>126</v>
+      </c>
+      <c r="D245">
+        <v>200</v>
+      </c>
+      <c r="E245">
+        <v>77.06</v>
+      </c>
+      <c r="F245">
+        <v>15412</v>
+      </c>
+      <c r="G245" t="s">
+        <v>129</v>
+      </c>
+      <c r="H245">
+        <v>159.9999999999994</v>
+      </c>
+      <c r="I245" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B246" t="s">
+        <v>122</v>
+      </c>
+      <c r="C246" t="s">
+        <v>126</v>
+      </c>
+      <c r="D246">
+        <v>300</v>
+      </c>
+      <c r="E246">
+        <v>55.98</v>
+      </c>
+      <c r="F246">
+        <v>16794</v>
+      </c>
+      <c r="G246" t="s">
+        <v>128</v>
+      </c>
+      <c r="H246">
+        <v>-171.0000000000001</v>
+      </c>
+      <c r="I246" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="2">
+        <v>45961.39652777778</v>
+      </c>
+      <c r="B247" t="s">
+        <v>123</v>
+      </c>
+      <c r="C247" t="s">
+        <v>125</v>
+      </c>
+      <c r="D247">
+        <v>200</v>
+      </c>
+      <c r="E247">
+        <v>67.72</v>
+      </c>
+      <c r="F247">
+        <v>13544</v>
+      </c>
+      <c r="I247" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="2">
+        <v>45961.40347222222</v>
+      </c>
+      <c r="B248" t="s">
+        <v>124</v>
+      </c>
+      <c r="C248" t="s">
+        <v>125</v>
+      </c>
+      <c r="D248">
+        <v>2900</v>
+      </c>
+      <c r="E248">
+        <v>6.83</v>
+      </c>
+      <c r="F248">
+        <v>19807</v>
+      </c>
+      <c r="I248" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
